--- a/server/python_script/vab_merged_with_links.xlsx
+++ b/server/python_script/vab_merged_with_links.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1983" uniqueCount="1182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1940" uniqueCount="1181">
   <si>
     <t>volume</t>
   </si>
@@ -316,9 +316,6 @@
   </si>
   <si>
     <t>爸爸</t>
-  </si>
-  <si>
-    <t>家庭生活</t>
   </si>
   <si>
     <t>https://res.cloudinary.com/dbmrnpwxd/image/upload/v1753862842/%E7%88%B8%E7%88%B8_sgf3nh.png</t>
@@ -3983,8 +3980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K593"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E155"/>
+    <sheetView tabSelected="1" topLeftCell="B385" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45:F86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -5130,11 +5127,8 @@
       <c r="C44" t="s">
         <v>98</v>
       </c>
-      <c r="F44" t="s">
+      <c r="G44" t="s">
         <v>99</v>
-      </c>
-      <c r="G44" t="s">
-        <v>100</v>
       </c>
       <c r="I44" t="s">
         <v>13</v>
@@ -5154,13 +5148,10 @@
         <v>1</v>
       </c>
       <c r="C45" t="s">
+        <v>100</v>
+      </c>
+      <c r="G45" t="s">
         <v>101</v>
-      </c>
-      <c r="F45" t="s">
-        <v>99</v>
-      </c>
-      <c r="G45" t="s">
-        <v>102</v>
       </c>
       <c r="I45" t="s">
         <v>13</v>
@@ -5180,13 +5171,10 @@
         <v>1</v>
       </c>
       <c r="C46" t="s">
+        <v>102</v>
+      </c>
+      <c r="G46" t="s">
         <v>103</v>
-      </c>
-      <c r="F46" t="s">
-        <v>99</v>
-      </c>
-      <c r="G46" t="s">
-        <v>104</v>
       </c>
       <c r="I46" t="s">
         <v>13</v>
@@ -5206,13 +5194,10 @@
         <v>1</v>
       </c>
       <c r="C47" t="s">
+        <v>104</v>
+      </c>
+      <c r="G47" t="s">
         <v>105</v>
-      </c>
-      <c r="F47" t="s">
-        <v>99</v>
-      </c>
-      <c r="G47" t="s">
-        <v>106</v>
       </c>
       <c r="I47" t="s">
         <v>13</v>
@@ -5232,13 +5217,10 @@
         <v>1</v>
       </c>
       <c r="C48" t="s">
+        <v>106</v>
+      </c>
+      <c r="G48" t="s">
         <v>107</v>
-      </c>
-      <c r="F48" t="s">
-        <v>99</v>
-      </c>
-      <c r="G48" t="s">
-        <v>108</v>
       </c>
       <c r="I48" t="s">
         <v>13</v>
@@ -5258,13 +5240,10 @@
         <v>1</v>
       </c>
       <c r="C49" t="s">
+        <v>108</v>
+      </c>
+      <c r="G49" t="s">
         <v>109</v>
-      </c>
-      <c r="F49" t="s">
-        <v>99</v>
-      </c>
-      <c r="G49" t="s">
-        <v>110</v>
       </c>
       <c r="I49" t="s">
         <v>13</v>
@@ -5284,13 +5263,10 @@
         <v>1</v>
       </c>
       <c r="C50" t="s">
+        <v>110</v>
+      </c>
+      <c r="G50" t="s">
         <v>111</v>
-      </c>
-      <c r="F50" t="s">
-        <v>99</v>
-      </c>
-      <c r="G50" t="s">
-        <v>112</v>
       </c>
       <c r="I50" t="s">
         <v>13</v>
@@ -5310,13 +5286,10 @@
         <v>1</v>
       </c>
       <c r="C51" t="s">
+        <v>112</v>
+      </c>
+      <c r="G51" t="s">
         <v>113</v>
-      </c>
-      <c r="F51" t="s">
-        <v>99</v>
-      </c>
-      <c r="G51" t="s">
-        <v>114</v>
       </c>
       <c r="I51" t="s">
         <v>13</v>
@@ -5336,13 +5309,10 @@
         <v>1</v>
       </c>
       <c r="C52" t="s">
+        <v>114</v>
+      </c>
+      <c r="G52" t="s">
         <v>115</v>
-      </c>
-      <c r="F52" t="s">
-        <v>99</v>
-      </c>
-      <c r="G52" t="s">
-        <v>116</v>
       </c>
       <c r="I52" t="s">
         <v>13</v>
@@ -5362,13 +5332,10 @@
         <v>1</v>
       </c>
       <c r="C53" t="s">
+        <v>116</v>
+      </c>
+      <c r="G53" t="s">
         <v>117</v>
-      </c>
-      <c r="F53" t="s">
-        <v>99</v>
-      </c>
-      <c r="G53" t="s">
-        <v>118</v>
       </c>
       <c r="I53" t="s">
         <v>13</v>
@@ -5388,13 +5355,10 @@
         <v>2</v>
       </c>
       <c r="C54" t="s">
+        <v>118</v>
+      </c>
+      <c r="G54" t="s">
         <v>119</v>
-      </c>
-      <c r="F54" t="s">
-        <v>99</v>
-      </c>
-      <c r="G54" t="s">
-        <v>120</v>
       </c>
       <c r="I54" t="s">
         <v>13</v>
@@ -5414,13 +5378,10 @@
         <v>2</v>
       </c>
       <c r="C55" t="s">
+        <v>120</v>
+      </c>
+      <c r="G55" t="s">
         <v>121</v>
-      </c>
-      <c r="F55" t="s">
-        <v>99</v>
-      </c>
-      <c r="G55" t="s">
-        <v>122</v>
       </c>
       <c r="I55" t="s">
         <v>13</v>
@@ -5440,13 +5401,10 @@
         <v>2</v>
       </c>
       <c r="C56" t="s">
+        <v>122</v>
+      </c>
+      <c r="G56" t="s">
         <v>123</v>
-      </c>
-      <c r="F56" t="s">
-        <v>99</v>
-      </c>
-      <c r="G56" t="s">
-        <v>124</v>
       </c>
       <c r="I56" t="s">
         <v>13</v>
@@ -5466,13 +5424,10 @@
         <v>2</v>
       </c>
       <c r="C57" t="s">
+        <v>124</v>
+      </c>
+      <c r="G57" t="s">
         <v>125</v>
-      </c>
-      <c r="F57" t="s">
-        <v>99</v>
-      </c>
-      <c r="G57" t="s">
-        <v>126</v>
       </c>
       <c r="I57" t="s">
         <v>13</v>
@@ -5492,13 +5447,10 @@
         <v>2</v>
       </c>
       <c r="C58" t="s">
+        <v>126</v>
+      </c>
+      <c r="G58" t="s">
         <v>127</v>
-      </c>
-      <c r="F58" t="s">
-        <v>99</v>
-      </c>
-      <c r="G58" t="s">
-        <v>128</v>
       </c>
       <c r="I58" t="s">
         <v>13</v>
@@ -5518,13 +5470,10 @@
         <v>2</v>
       </c>
       <c r="C59" t="s">
+        <v>128</v>
+      </c>
+      <c r="G59" t="s">
         <v>129</v>
-      </c>
-      <c r="F59" t="s">
-        <v>99</v>
-      </c>
-      <c r="G59" t="s">
-        <v>130</v>
       </c>
       <c r="I59" t="s">
         <v>13</v>
@@ -5544,13 +5493,10 @@
         <v>2</v>
       </c>
       <c r="C60" t="s">
+        <v>130</v>
+      </c>
+      <c r="G60" t="s">
         <v>131</v>
-      </c>
-      <c r="F60" t="s">
-        <v>99</v>
-      </c>
-      <c r="G60" t="s">
-        <v>132</v>
       </c>
       <c r="I60" t="s">
         <v>13</v>
@@ -5570,13 +5516,10 @@
         <v>2</v>
       </c>
       <c r="C61" t="s">
+        <v>132</v>
+      </c>
+      <c r="G61" t="s">
         <v>133</v>
-      </c>
-      <c r="F61" t="s">
-        <v>99</v>
-      </c>
-      <c r="G61" t="s">
-        <v>134</v>
       </c>
       <c r="I61" t="s">
         <v>13</v>
@@ -5596,13 +5539,10 @@
         <v>2</v>
       </c>
       <c r="C62" t="s">
+        <v>134</v>
+      </c>
+      <c r="G62" t="s">
         <v>135</v>
-      </c>
-      <c r="F62" t="s">
-        <v>99</v>
-      </c>
-      <c r="G62" t="s">
-        <v>136</v>
       </c>
       <c r="I62" t="s">
         <v>13</v>
@@ -5622,13 +5562,10 @@
         <v>3</v>
       </c>
       <c r="C63" t="s">
+        <v>136</v>
+      </c>
+      <c r="G63" t="s">
         <v>137</v>
-      </c>
-      <c r="F63" t="s">
-        <v>99</v>
-      </c>
-      <c r="G63" t="s">
-        <v>138</v>
       </c>
       <c r="I63" t="s">
         <v>13</v>
@@ -5648,13 +5585,10 @@
         <v>3</v>
       </c>
       <c r="C64" t="s">
+        <v>138</v>
+      </c>
+      <c r="G64" t="s">
         <v>139</v>
-      </c>
-      <c r="F64" t="s">
-        <v>99</v>
-      </c>
-      <c r="G64" t="s">
-        <v>140</v>
       </c>
       <c r="I64" t="s">
         <v>13</v>
@@ -5674,13 +5608,10 @@
         <v>3</v>
       </c>
       <c r="C65" t="s">
+        <v>140</v>
+      </c>
+      <c r="G65" t="s">
         <v>141</v>
-      </c>
-      <c r="F65" t="s">
-        <v>99</v>
-      </c>
-      <c r="G65" t="s">
-        <v>142</v>
       </c>
       <c r="I65" t="s">
         <v>13</v>
@@ -5700,13 +5631,10 @@
         <v>3</v>
       </c>
       <c r="C66" t="s">
+        <v>142</v>
+      </c>
+      <c r="G66" t="s">
         <v>143</v>
-      </c>
-      <c r="F66" t="s">
-        <v>99</v>
-      </c>
-      <c r="G66" t="s">
-        <v>144</v>
       </c>
       <c r="I66" t="s">
         <v>13</v>
@@ -5726,13 +5654,10 @@
         <v>3</v>
       </c>
       <c r="C67" t="s">
+        <v>144</v>
+      </c>
+      <c r="G67" t="s">
         <v>145</v>
-      </c>
-      <c r="F67" t="s">
-        <v>99</v>
-      </c>
-      <c r="G67" t="s">
-        <v>146</v>
       </c>
       <c r="I67" t="s">
         <v>13</v>
@@ -5752,13 +5677,10 @@
         <v>3</v>
       </c>
       <c r="C68" t="s">
+        <v>146</v>
+      </c>
+      <c r="G68" t="s">
         <v>147</v>
-      </c>
-      <c r="F68" t="s">
-        <v>99</v>
-      </c>
-      <c r="G68" t="s">
-        <v>148</v>
       </c>
       <c r="I68" t="s">
         <v>13</v>
@@ -5778,13 +5700,10 @@
         <v>3</v>
       </c>
       <c r="C69" t="s">
+        <v>148</v>
+      </c>
+      <c r="G69" t="s">
         <v>149</v>
-      </c>
-      <c r="F69" t="s">
-        <v>99</v>
-      </c>
-      <c r="G69" t="s">
-        <v>150</v>
       </c>
       <c r="I69" t="s">
         <v>13</v>
@@ -5804,13 +5723,10 @@
         <v>3</v>
       </c>
       <c r="C70" t="s">
+        <v>150</v>
+      </c>
+      <c r="G70" t="s">
         <v>151</v>
-      </c>
-      <c r="F70" t="s">
-        <v>99</v>
-      </c>
-      <c r="G70" t="s">
-        <v>152</v>
       </c>
       <c r="I70" t="s">
         <v>13</v>
@@ -5830,13 +5746,10 @@
         <v>4</v>
       </c>
       <c r="C71" t="s">
+        <v>152</v>
+      </c>
+      <c r="G71" t="s">
         <v>153</v>
-      </c>
-      <c r="F71" t="s">
-        <v>99</v>
-      </c>
-      <c r="G71" t="s">
-        <v>154</v>
       </c>
       <c r="I71" t="s">
         <v>13</v>
@@ -5856,13 +5769,10 @@
         <v>4</v>
       </c>
       <c r="C72" t="s">
+        <v>154</v>
+      </c>
+      <c r="G72" t="s">
         <v>155</v>
-      </c>
-      <c r="F72" t="s">
-        <v>99</v>
-      </c>
-      <c r="G72" t="s">
-        <v>156</v>
       </c>
       <c r="I72" t="s">
         <v>13</v>
@@ -5882,13 +5792,10 @@
         <v>4</v>
       </c>
       <c r="C73" t="s">
+        <v>156</v>
+      </c>
+      <c r="G73" t="s">
         <v>157</v>
-      </c>
-      <c r="F73" t="s">
-        <v>99</v>
-      </c>
-      <c r="G73" t="s">
-        <v>158</v>
       </c>
       <c r="I73" t="s">
         <v>13</v>
@@ -5908,13 +5815,10 @@
         <v>4</v>
       </c>
       <c r="C74" t="s">
+        <v>158</v>
+      </c>
+      <c r="G74" t="s">
         <v>159</v>
-      </c>
-      <c r="F74" t="s">
-        <v>99</v>
-      </c>
-      <c r="G74" t="s">
-        <v>160</v>
       </c>
       <c r="I74" t="s">
         <v>13</v>
@@ -5934,13 +5838,10 @@
         <v>4</v>
       </c>
       <c r="C75" t="s">
+        <v>160</v>
+      </c>
+      <c r="G75" t="s">
         <v>161</v>
-      </c>
-      <c r="F75" t="s">
-        <v>99</v>
-      </c>
-      <c r="G75" t="s">
-        <v>162</v>
       </c>
       <c r="I75" t="s">
         <v>13</v>
@@ -5960,13 +5861,10 @@
         <v>4</v>
       </c>
       <c r="C76" t="s">
+        <v>162</v>
+      </c>
+      <c r="G76" t="s">
         <v>163</v>
-      </c>
-      <c r="F76" t="s">
-        <v>99</v>
-      </c>
-      <c r="G76" t="s">
-        <v>164</v>
       </c>
       <c r="I76" t="s">
         <v>13</v>
@@ -5986,13 +5884,10 @@
         <v>4</v>
       </c>
       <c r="C77" t="s">
+        <v>164</v>
+      </c>
+      <c r="G77" t="s">
         <v>165</v>
-      </c>
-      <c r="F77" t="s">
-        <v>99</v>
-      </c>
-      <c r="G77" t="s">
-        <v>166</v>
       </c>
       <c r="I77" t="s">
         <v>13</v>
@@ -6012,13 +5907,10 @@
         <v>4</v>
       </c>
       <c r="C78" t="s">
+        <v>166</v>
+      </c>
+      <c r="G78" t="s">
         <v>167</v>
-      </c>
-      <c r="F78" t="s">
-        <v>99</v>
-      </c>
-      <c r="G78" t="s">
-        <v>168</v>
       </c>
       <c r="I78" t="s">
         <v>13</v>
@@ -6038,13 +5930,10 @@
         <v>5</v>
       </c>
       <c r="C79" t="s">
+        <v>168</v>
+      </c>
+      <c r="G79" t="s">
         <v>169</v>
-      </c>
-      <c r="F79" t="s">
-        <v>99</v>
-      </c>
-      <c r="G79" t="s">
-        <v>170</v>
       </c>
       <c r="I79" t="s">
         <v>13</v>
@@ -6064,13 +5953,10 @@
         <v>5</v>
       </c>
       <c r="C80" t="s">
+        <v>170</v>
+      </c>
+      <c r="G80" t="s">
         <v>171</v>
-      </c>
-      <c r="F80" t="s">
-        <v>99</v>
-      </c>
-      <c r="G80" t="s">
-        <v>172</v>
       </c>
       <c r="I80" t="s">
         <v>13</v>
@@ -6090,13 +5976,10 @@
         <v>5</v>
       </c>
       <c r="C81" t="s">
+        <v>172</v>
+      </c>
+      <c r="G81" t="s">
         <v>173</v>
-      </c>
-      <c r="F81" t="s">
-        <v>99</v>
-      </c>
-      <c r="G81" t="s">
-        <v>174</v>
       </c>
       <c r="I81" t="s">
         <v>13</v>
@@ -6116,13 +5999,10 @@
         <v>5</v>
       </c>
       <c r="C82" t="s">
+        <v>174</v>
+      </c>
+      <c r="G82" t="s">
         <v>175</v>
-      </c>
-      <c r="F82" t="s">
-        <v>99</v>
-      </c>
-      <c r="G82" t="s">
-        <v>176</v>
       </c>
       <c r="I82" t="s">
         <v>13</v>
@@ -6142,13 +6022,10 @@
         <v>5</v>
       </c>
       <c r="C83" t="s">
+        <v>176</v>
+      </c>
+      <c r="G83" t="s">
         <v>177</v>
-      </c>
-      <c r="F83" t="s">
-        <v>99</v>
-      </c>
-      <c r="G83" t="s">
-        <v>178</v>
       </c>
       <c r="I83" t="s">
         <v>13</v>
@@ -6168,13 +6045,10 @@
         <v>5</v>
       </c>
       <c r="C84" t="s">
+        <v>178</v>
+      </c>
+      <c r="G84" t="s">
         <v>179</v>
-      </c>
-      <c r="F84" t="s">
-        <v>99</v>
-      </c>
-      <c r="G84" t="s">
-        <v>180</v>
       </c>
       <c r="I84" t="s">
         <v>13</v>
@@ -6194,13 +6068,10 @@
         <v>5</v>
       </c>
       <c r="C85" t="s">
+        <v>180</v>
+      </c>
+      <c r="G85" t="s">
         <v>181</v>
-      </c>
-      <c r="F85" t="s">
-        <v>99</v>
-      </c>
-      <c r="G85" t="s">
-        <v>182</v>
       </c>
       <c r="I85" t="s">
         <v>13</v>
@@ -6220,13 +6091,10 @@
         <v>5</v>
       </c>
       <c r="C86" t="s">
+        <v>182</v>
+      </c>
+      <c r="G86" t="s">
         <v>183</v>
-      </c>
-      <c r="F86" t="s">
-        <v>99</v>
-      </c>
-      <c r="G86" t="s">
-        <v>184</v>
       </c>
       <c r="I86" t="s">
         <v>13</v>
@@ -6246,13 +6114,13 @@
         <v>1</v>
       </c>
       <c r="C87" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D87">
         <v>10</v>
       </c>
       <c r="G87" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I87" t="s">
         <v>13</v>
@@ -6272,13 +6140,13 @@
         <v>1</v>
       </c>
       <c r="C88" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D88">
         <v>10</v>
       </c>
       <c r="G88" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I88" t="s">
         <v>13</v>
@@ -6298,13 +6166,13 @@
         <v>1</v>
       </c>
       <c r="C89" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D89">
         <v>11</v>
       </c>
       <c r="G89" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I89" t="s">
         <v>13</v>
@@ -6324,13 +6192,13 @@
         <v>1</v>
       </c>
       <c r="C90" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D90">
         <v>11</v>
       </c>
       <c r="G90" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I90" t="s">
         <v>13</v>
@@ -6350,13 +6218,13 @@
         <v>1</v>
       </c>
       <c r="C91" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D91">
         <v>12</v>
       </c>
       <c r="G91" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I91" t="s">
         <v>13</v>
@@ -6376,13 +6244,13 @@
         <v>1</v>
       </c>
       <c r="C92" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D92">
         <v>12</v>
       </c>
       <c r="G92" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I92" t="s">
         <v>13</v>
@@ -6402,13 +6270,13 @@
         <v>1</v>
       </c>
       <c r="C93" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D93">
         <v>12</v>
       </c>
       <c r="G93" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I93" t="s">
         <v>13</v>
@@ -6428,13 +6296,13 @@
         <v>1</v>
       </c>
       <c r="C94" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D94">
         <v>13</v>
       </c>
       <c r="G94" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I94" t="s">
         <v>13</v>
@@ -6454,13 +6322,13 @@
         <v>1</v>
       </c>
       <c r="C95" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D95">
         <v>13</v>
       </c>
       <c r="G95" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I95" t="s">
         <v>13</v>
@@ -6480,13 +6348,13 @@
         <v>1</v>
       </c>
       <c r="C96" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D96">
         <v>10</v>
       </c>
       <c r="G96" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I96" t="s">
         <v>13</v>
@@ -6506,13 +6374,13 @@
         <v>1</v>
       </c>
       <c r="C97" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D97">
         <v>11</v>
       </c>
       <c r="G97" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I97" t="s">
         <v>13</v>
@@ -6532,13 +6400,13 @@
         <v>1</v>
       </c>
       <c r="C98" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D98">
         <v>11</v>
       </c>
       <c r="G98" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I98" t="s">
         <v>13</v>
@@ -6558,13 +6426,13 @@
         <v>1</v>
       </c>
       <c r="C99" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D99">
         <v>12</v>
       </c>
       <c r="G99" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I99" t="s">
         <v>13</v>
@@ -6584,13 +6452,13 @@
         <v>1</v>
       </c>
       <c r="C100" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D100">
         <v>13</v>
       </c>
       <c r="G100" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I100" t="s">
         <v>13</v>
@@ -6610,13 +6478,13 @@
         <v>1</v>
       </c>
       <c r="C101" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D101">
         <v>13</v>
       </c>
       <c r="G101" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I101" t="s">
         <v>13</v>
@@ -6636,13 +6504,13 @@
         <v>2</v>
       </c>
       <c r="C102" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D102">
         <v>22</v>
       </c>
       <c r="G102" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I102" t="s">
         <v>13</v>
@@ -6662,13 +6530,13 @@
         <v>2</v>
       </c>
       <c r="C103" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D103">
         <v>22</v>
       </c>
       <c r="G103" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I103" t="s">
         <v>13</v>
@@ -6688,13 +6556,13 @@
         <v>2</v>
       </c>
       <c r="C104" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D104">
         <v>23</v>
       </c>
       <c r="G104" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I104" t="s">
         <v>13</v>
@@ -6714,13 +6582,13 @@
         <v>2</v>
       </c>
       <c r="C105" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D105">
         <v>23</v>
       </c>
       <c r="G105" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I105" t="s">
         <v>13</v>
@@ -6740,13 +6608,13 @@
         <v>2</v>
       </c>
       <c r="C106" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D106">
         <v>24</v>
       </c>
       <c r="G106" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I106" t="s">
         <v>13</v>
@@ -6766,13 +6634,13 @@
         <v>2</v>
       </c>
       <c r="C107" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D107">
         <v>25</v>
       </c>
       <c r="G107" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I107" t="s">
         <v>13</v>
@@ -6792,13 +6660,13 @@
         <v>2</v>
       </c>
       <c r="C108" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D108">
         <v>25</v>
       </c>
       <c r="G108" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I108" t="s">
         <v>13</v>
@@ -6818,13 +6686,13 @@
         <v>2</v>
       </c>
       <c r="C109" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D109">
         <v>22</v>
       </c>
       <c r="G109" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I109" t="s">
         <v>13</v>
@@ -6844,13 +6712,13 @@
         <v>2</v>
       </c>
       <c r="C110" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D110">
         <v>23</v>
       </c>
       <c r="G110" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I110" t="s">
         <v>13</v>
@@ -6870,13 +6738,13 @@
         <v>2</v>
       </c>
       <c r="C111" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D111">
         <v>23</v>
       </c>
       <c r="G111" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I111" t="s">
         <v>13</v>
@@ -6896,13 +6764,13 @@
         <v>2</v>
       </c>
       <c r="C112" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D112">
         <v>24</v>
       </c>
       <c r="G112" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I112" t="s">
         <v>13</v>
@@ -6922,13 +6790,13 @@
         <v>2</v>
       </c>
       <c r="C113" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D113">
         <v>24</v>
       </c>
       <c r="G113" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K113" t="s">
         <v>15</v>
@@ -6942,13 +6810,13 @@
         <v>2</v>
       </c>
       <c r="C114" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D114">
         <v>25</v>
       </c>
       <c r="G114" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K114" t="s">
         <v>15</v>
@@ -6962,13 +6830,13 @@
         <v>2</v>
       </c>
       <c r="C115" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D115">
         <v>25</v>
       </c>
       <c r="G115" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K115" t="s">
         <v>15</v>
@@ -6982,13 +6850,13 @@
         <v>3</v>
       </c>
       <c r="C116" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D116">
         <v>34</v>
       </c>
       <c r="G116" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K116" t="s">
         <v>15</v>
@@ -7002,13 +6870,13 @@
         <v>3</v>
       </c>
       <c r="C117" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D117">
         <v>34</v>
       </c>
       <c r="G117" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K117" t="s">
         <v>15</v>
@@ -7022,13 +6890,13 @@
         <v>3</v>
       </c>
       <c r="C118" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D118">
         <v>35</v>
       </c>
       <c r="G118" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K118" t="s">
         <v>15</v>
@@ -7042,13 +6910,13 @@
         <v>3</v>
       </c>
       <c r="C119" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D119">
         <v>36</v>
       </c>
       <c r="G119" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K119" t="s">
         <v>15</v>
@@ -7062,13 +6930,13 @@
         <v>3</v>
       </c>
       <c r="C120" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D120">
         <v>36</v>
       </c>
       <c r="G120" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K120" t="s">
         <v>15</v>
@@ -7082,13 +6950,13 @@
         <v>3</v>
       </c>
       <c r="C121" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D121">
         <v>37</v>
       </c>
       <c r="G121" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K121" t="s">
         <v>15</v>
@@ -7102,13 +6970,13 @@
         <v>3</v>
       </c>
       <c r="C122" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D122">
         <v>34</v>
       </c>
       <c r="G122" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K122" t="s">
         <v>15</v>
@@ -7122,13 +6990,13 @@
         <v>3</v>
       </c>
       <c r="C123" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D123">
         <v>35</v>
       </c>
       <c r="G123" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K123" t="s">
         <v>15</v>
@@ -7142,13 +7010,13 @@
         <v>3</v>
       </c>
       <c r="C124" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D124">
         <v>36</v>
       </c>
       <c r="G124" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K124" t="s">
         <v>15</v>
@@ -7162,13 +7030,13 @@
         <v>3</v>
       </c>
       <c r="C125" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D125">
         <v>36</v>
       </c>
       <c r="G125" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K125" t="s">
         <v>15</v>
@@ -7182,13 +7050,13 @@
         <v>3</v>
       </c>
       <c r="C126" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D126">
         <v>37</v>
       </c>
       <c r="G126" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K126" t="s">
         <v>15</v>
@@ -7202,13 +7070,13 @@
         <v>4</v>
       </c>
       <c r="C127" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D127">
         <v>46</v>
       </c>
       <c r="G127" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K127" t="s">
         <v>15</v>
@@ -7222,13 +7090,13 @@
         <v>4</v>
       </c>
       <c r="C128" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D128">
         <v>46</v>
       </c>
       <c r="G128" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K128" t="s">
         <v>15</v>
@@ -7262,13 +7130,13 @@
         <v>4</v>
       </c>
       <c r="C130" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D130">
         <v>48</v>
       </c>
       <c r="G130" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K130" t="s">
         <v>15</v>
@@ -7282,13 +7150,13 @@
         <v>4</v>
       </c>
       <c r="C131" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D131">
         <v>49</v>
       </c>
       <c r="G131" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K131" t="s">
         <v>15</v>
@@ -7302,13 +7170,13 @@
         <v>4</v>
       </c>
       <c r="C132" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D132">
         <v>49</v>
       </c>
       <c r="G132" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K132" t="s">
         <v>15</v>
@@ -7322,13 +7190,13 @@
         <v>4</v>
       </c>
       <c r="C133" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D133">
         <v>46</v>
       </c>
       <c r="G133" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K133" t="s">
         <v>15</v>
@@ -7342,13 +7210,13 @@
         <v>4</v>
       </c>
       <c r="C134" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D134">
         <v>47</v>
       </c>
       <c r="G134" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K134" t="s">
         <v>15</v>
@@ -7362,13 +7230,13 @@
         <v>4</v>
       </c>
       <c r="C135" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D135">
         <v>48</v>
       </c>
       <c r="G135" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="K135" t="s">
         <v>15</v>
@@ -7382,13 +7250,13 @@
         <v>4</v>
       </c>
       <c r="C136" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D136">
         <v>49</v>
       </c>
       <c r="G136" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="K136" t="s">
         <v>15</v>
@@ -7402,13 +7270,13 @@
         <v>4</v>
       </c>
       <c r="C137" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D137">
         <v>49</v>
       </c>
       <c r="G137" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K137" t="s">
         <v>15</v>
@@ -7422,13 +7290,13 @@
         <v>4</v>
       </c>
       <c r="C138" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D138">
         <v>49</v>
       </c>
       <c r="G138" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K138" t="s">
         <v>15</v>
@@ -7442,13 +7310,13 @@
         <v>5</v>
       </c>
       <c r="C139" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D139">
         <v>58</v>
       </c>
       <c r="G139" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K139" t="s">
         <v>15</v>
@@ -7462,13 +7330,13 @@
         <v>5</v>
       </c>
       <c r="C140" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D140">
         <v>58</v>
       </c>
       <c r="G140" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="K140" t="s">
         <v>15</v>
@@ -7482,13 +7350,13 @@
         <v>5</v>
       </c>
       <c r="C141" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D141">
         <v>59</v>
       </c>
       <c r="G141" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K141" t="s">
         <v>15</v>
@@ -7502,13 +7370,13 @@
         <v>5</v>
       </c>
       <c r="C142" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D142">
         <v>59</v>
       </c>
       <c r="G142" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K142" t="s">
         <v>15</v>
@@ -7522,13 +7390,13 @@
         <v>5</v>
       </c>
       <c r="C143" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D143">
         <v>60</v>
       </c>
       <c r="G143" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K143" t="s">
         <v>15</v>
@@ -7542,13 +7410,13 @@
         <v>5</v>
       </c>
       <c r="C144" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D144">
         <v>60</v>
       </c>
       <c r="G144" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="K144" t="s">
         <v>15</v>
@@ -7562,13 +7430,13 @@
         <v>5</v>
       </c>
       <c r="C145" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D145">
         <v>60</v>
       </c>
       <c r="G145" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K145" t="s">
         <v>15</v>
@@ -7582,13 +7450,13 @@
         <v>5</v>
       </c>
       <c r="C146" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D146">
         <v>61</v>
       </c>
       <c r="G146" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K146" t="s">
         <v>15</v>
@@ -7602,13 +7470,13 @@
         <v>5</v>
       </c>
       <c r="C147" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D147">
         <v>61</v>
       </c>
       <c r="G147" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="K147" t="s">
         <v>15</v>
@@ -7622,13 +7490,13 @@
         <v>5</v>
       </c>
       <c r="C148" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D148">
         <v>58</v>
       </c>
       <c r="G148" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="K148" t="s">
         <v>15</v>
@@ -7642,13 +7510,13 @@
         <v>5</v>
       </c>
       <c r="C149" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D149">
         <v>58</v>
       </c>
       <c r="G149" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K149" t="s">
         <v>15</v>
@@ -7662,13 +7530,13 @@
         <v>5</v>
       </c>
       <c r="C150" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D150">
         <v>59</v>
       </c>
       <c r="G150" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K150" t="s">
         <v>15</v>
@@ -7682,13 +7550,13 @@
         <v>5</v>
       </c>
       <c r="C151" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D151">
         <v>59</v>
       </c>
       <c r="G151" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="K151" t="s">
         <v>15</v>
@@ -7702,13 +7570,13 @@
         <v>5</v>
       </c>
       <c r="C152" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D152">
         <v>60</v>
       </c>
       <c r="G152" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="K152" t="s">
         <v>15</v>
@@ -7722,13 +7590,13 @@
         <v>5</v>
       </c>
       <c r="C153" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D153">
         <v>60</v>
       </c>
       <c r="G153" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K153" t="s">
         <v>15</v>
@@ -7742,13 +7610,13 @@
         <v>5</v>
       </c>
       <c r="C154" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D154">
         <v>60</v>
       </c>
       <c r="G154" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K154" t="s">
         <v>15</v>
@@ -7762,13 +7630,13 @@
         <v>5</v>
       </c>
       <c r="C155" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D155">
         <v>61</v>
       </c>
       <c r="G155" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K155" t="s">
         <v>15</v>
@@ -7782,13 +7650,13 @@
         <v>1</v>
       </c>
       <c r="C156" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D156">
         <v>10</v>
       </c>
       <c r="G156" s="3" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="K156" t="s">
         <v>15</v>
@@ -7802,13 +7670,13 @@
         <v>1</v>
       </c>
       <c r="C157" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D157">
         <v>10</v>
       </c>
       <c r="G157" s="3" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="K157" t="s">
         <v>15</v>
@@ -7822,13 +7690,13 @@
         <v>1</v>
       </c>
       <c r="C158" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D158">
         <v>10</v>
       </c>
       <c r="G158" s="3" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="K158" t="s">
         <v>15</v>
@@ -7842,13 +7710,13 @@
         <v>1</v>
       </c>
       <c r="C159" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D159">
         <v>11</v>
       </c>
       <c r="G159" s="3" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="K159" t="s">
         <v>15</v>
@@ -7862,13 +7730,13 @@
         <v>1</v>
       </c>
       <c r="C160" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D160">
         <v>11</v>
       </c>
       <c r="G160" s="3" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="K160" t="s">
         <v>15</v>
@@ -7882,13 +7750,13 @@
         <v>1</v>
       </c>
       <c r="C161" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D161">
         <v>11</v>
       </c>
       <c r="G161" s="3" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="K161" t="s">
         <v>15</v>
@@ -7902,13 +7770,13 @@
         <v>1</v>
       </c>
       <c r="C162" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D162">
         <v>11</v>
       </c>
       <c r="G162" s="3" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="K162" t="s">
         <v>15</v>
@@ -7922,13 +7790,13 @@
         <v>1</v>
       </c>
       <c r="C163" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D163">
         <v>12</v>
       </c>
       <c r="G163" s="3" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="K163" t="s">
         <v>15</v>
@@ -7942,13 +7810,13 @@
         <v>1</v>
       </c>
       <c r="C164" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D164">
         <v>12</v>
       </c>
       <c r="G164" s="3" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="K164" t="s">
         <v>15</v>
@@ -7962,13 +7830,13 @@
         <v>1</v>
       </c>
       <c r="C165" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D165">
         <v>12</v>
       </c>
       <c r="G165" s="3" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="K165" t="s">
         <v>15</v>
@@ -7982,13 +7850,13 @@
         <v>1</v>
       </c>
       <c r="C166" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D166">
         <v>12</v>
       </c>
       <c r="G166" s="3" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="K166" t="s">
         <v>15</v>
@@ -8002,13 +7870,13 @@
         <v>1</v>
       </c>
       <c r="C167" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D167">
         <v>13</v>
       </c>
       <c r="G167" s="3" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="K167" t="s">
         <v>15</v>
@@ -8022,13 +7890,13 @@
         <v>1</v>
       </c>
       <c r="C168" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D168">
         <v>13</v>
       </c>
       <c r="G168" s="3" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="K168" t="s">
         <v>15</v>
@@ -8042,13 +7910,13 @@
         <v>1</v>
       </c>
       <c r="C169" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D169">
         <v>13</v>
       </c>
       <c r="G169" s="3" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="K169" t="s">
         <v>15</v>
@@ -8062,13 +7930,13 @@
         <v>2</v>
       </c>
       <c r="C170" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D170">
         <v>22</v>
       </c>
       <c r="G170" s="3" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="K170" t="s">
         <v>15</v>
@@ -8082,13 +7950,13 @@
         <v>2</v>
       </c>
       <c r="C171" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D171">
         <v>22</v>
       </c>
       <c r="G171" s="3" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="K171" t="s">
         <v>15</v>
@@ -8102,13 +7970,13 @@
         <v>2</v>
       </c>
       <c r="C172" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D172">
         <v>22</v>
       </c>
       <c r="G172" s="3" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="K172" t="s">
         <v>15</v>
@@ -8122,13 +7990,13 @@
         <v>2</v>
       </c>
       <c r="C173" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D173">
         <v>22</v>
       </c>
       <c r="G173" s="3" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="K173" t="s">
         <v>15</v>
@@ -8142,13 +8010,13 @@
         <v>2</v>
       </c>
       <c r="C174" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D174">
         <v>23</v>
       </c>
       <c r="G174" s="3" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="K174" t="s">
         <v>15</v>
@@ -8162,13 +8030,13 @@
         <v>2</v>
       </c>
       <c r="C175" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D175">
         <v>23</v>
       </c>
       <c r="G175" s="3" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="K175" t="s">
         <v>15</v>
@@ -8182,13 +8050,13 @@
         <v>2</v>
       </c>
       <c r="C176" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D176">
         <v>23</v>
       </c>
       <c r="G176" s="3" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="K176" t="s">
         <v>15</v>
@@ -8202,13 +8070,13 @@
         <v>2</v>
       </c>
       <c r="C177" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D177">
         <v>24</v>
       </c>
       <c r="G177" s="3" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="K177" t="s">
         <v>15</v>
@@ -8222,13 +8090,13 @@
         <v>2</v>
       </c>
       <c r="C178" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D178">
         <v>24</v>
       </c>
       <c r="G178" s="3" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="K178" t="s">
         <v>15</v>
@@ -8242,13 +8110,13 @@
         <v>2</v>
       </c>
       <c r="C179" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D179">
         <v>24</v>
       </c>
       <c r="G179" s="3" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="K179" t="s">
         <v>15</v>
@@ -8262,13 +8130,13 @@
         <v>2</v>
       </c>
       <c r="C180" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D180">
         <v>24</v>
       </c>
       <c r="G180" s="3" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="K180" t="s">
         <v>15</v>
@@ -8282,13 +8150,13 @@
         <v>2</v>
       </c>
       <c r="C181" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D181">
         <v>25</v>
       </c>
       <c r="G181" s="3" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="K181" t="s">
         <v>15</v>
@@ -8302,13 +8170,13 @@
         <v>2</v>
       </c>
       <c r="C182" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D182">
         <v>25</v>
       </c>
       <c r="G182" s="3" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="K182" t="s">
         <v>15</v>
@@ -8322,13 +8190,13 @@
         <v>2</v>
       </c>
       <c r="C183" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D183">
         <v>25</v>
       </c>
       <c r="G183" s="3" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="K183" t="s">
         <v>15</v>
@@ -8342,13 +8210,13 @@
         <v>3</v>
       </c>
       <c r="C184" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="D184">
         <v>34</v>
       </c>
       <c r="G184" s="3" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="K184" t="s">
         <v>15</v>
@@ -8362,13 +8230,13 @@
         <v>3</v>
       </c>
       <c r="C185" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D185">
         <v>34</v>
       </c>
       <c r="G185" s="3" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="K185" t="s">
         <v>15</v>
@@ -8382,13 +8250,13 @@
         <v>3</v>
       </c>
       <c r="C186" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D186">
         <v>34</v>
       </c>
       <c r="G186" s="3" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="K186" t="s">
         <v>15</v>
@@ -8402,13 +8270,13 @@
         <v>3</v>
       </c>
       <c r="C187" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D187">
         <v>35</v>
       </c>
       <c r="G187" s="3" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="K187" t="s">
         <v>15</v>
@@ -8422,13 +8290,13 @@
         <v>3</v>
       </c>
       <c r="C188" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D188">
         <v>35</v>
       </c>
       <c r="G188" s="3" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="K188" t="s">
         <v>15</v>
@@ -8442,13 +8310,13 @@
         <v>3</v>
       </c>
       <c r="C189" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D189">
         <v>35</v>
       </c>
       <c r="G189" s="3" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="K189" t="s">
         <v>15</v>
@@ -8462,13 +8330,13 @@
         <v>3</v>
       </c>
       <c r="C190" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D190">
         <v>36</v>
       </c>
       <c r="G190" s="3" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="K190" t="s">
         <v>15</v>
@@ -8482,13 +8350,13 @@
         <v>3</v>
       </c>
       <c r="C191" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D191">
         <v>36</v>
       </c>
       <c r="G191" s="3" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="K191" t="s">
         <v>15</v>
@@ -8502,13 +8370,13 @@
         <v>3</v>
       </c>
       <c r="C192" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D192">
         <v>36</v>
       </c>
       <c r="G192" s="3" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="K192" t="s">
         <v>15</v>
@@ -8522,13 +8390,13 @@
         <v>3</v>
       </c>
       <c r="C193" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D193">
         <v>37</v>
       </c>
       <c r="G193" s="3" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="K193" t="s">
         <v>15</v>
@@ -8542,13 +8410,13 @@
         <v>3</v>
       </c>
       <c r="C194" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D194">
         <v>37</v>
       </c>
       <c r="G194" s="3" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="K194" t="s">
         <v>15</v>
@@ -8562,13 +8430,13 @@
         <v>4</v>
       </c>
       <c r="C195" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D195">
         <v>46</v>
       </c>
       <c r="G195" s="3" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="K195" t="s">
         <v>15</v>
@@ -8582,13 +8450,13 @@
         <v>4</v>
       </c>
       <c r="C196" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D196">
         <v>46</v>
       </c>
       <c r="G196" s="3" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="K196" t="s">
         <v>15</v>
@@ -8602,13 +8470,13 @@
         <v>4</v>
       </c>
       <c r="C197" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D197">
         <v>47</v>
       </c>
       <c r="G197" s="3" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="K197" t="s">
         <v>15</v>
@@ -8622,13 +8490,13 @@
         <v>4</v>
       </c>
       <c r="C198" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D198">
         <v>47</v>
       </c>
       <c r="G198" s="3" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="K198" t="s">
         <v>15</v>
@@ -8642,13 +8510,13 @@
         <v>4</v>
       </c>
       <c r="C199" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D199">
         <v>47</v>
       </c>
       <c r="G199" s="3" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="K199" t="s">
         <v>15</v>
@@ -8662,13 +8530,13 @@
         <v>4</v>
       </c>
       <c r="C200" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D200">
         <v>48</v>
       </c>
       <c r="G200" s="3" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="K200" t="s">
         <v>15</v>
@@ -8682,13 +8550,13 @@
         <v>4</v>
       </c>
       <c r="C201" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D201">
         <v>48</v>
       </c>
       <c r="G201" s="3" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="K201" t="s">
         <v>15</v>
@@ -8702,13 +8570,13 @@
         <v>4</v>
       </c>
       <c r="C202" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D202">
         <v>48</v>
       </c>
       <c r="G202" s="3" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="K202" t="s">
         <v>15</v>
@@ -8722,13 +8590,13 @@
         <v>4</v>
       </c>
       <c r="C203" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D203">
         <v>48</v>
       </c>
       <c r="G203" s="3" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="K203" t="s">
         <v>15</v>
@@ -8742,13 +8610,13 @@
         <v>4</v>
       </c>
       <c r="C204" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D204">
         <v>49</v>
       </c>
       <c r="G204" s="3" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="K204" t="s">
         <v>15</v>
@@ -8762,13 +8630,13 @@
         <v>4</v>
       </c>
       <c r="C205" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D205">
         <v>49</v>
       </c>
       <c r="G205" s="3" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="K205" t="s">
         <v>15</v>
@@ -8782,13 +8650,13 @@
         <v>4</v>
       </c>
       <c r="C206" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D206">
         <v>49</v>
       </c>
       <c r="G206" s="3" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="K206" t="s">
         <v>15</v>
@@ -8802,13 +8670,13 @@
         <v>5</v>
       </c>
       <c r="C207" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D207">
         <v>58</v>
       </c>
       <c r="G207" s="3" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="K207" t="s">
         <v>15</v>
@@ -8822,13 +8690,13 @@
         <v>5</v>
       </c>
       <c r="C208" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D208">
         <v>58</v>
       </c>
       <c r="G208" s="3" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="K208" t="s">
         <v>15</v>
@@ -8842,13 +8710,13 @@
         <v>5</v>
       </c>
       <c r="C209" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D209">
         <v>58</v>
       </c>
       <c r="G209" s="3" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="K209" t="s">
         <v>15</v>
@@ -8862,13 +8730,13 @@
         <v>5</v>
       </c>
       <c r="C210" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D210">
         <v>58</v>
       </c>
       <c r="G210" s="3" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="K210" t="s">
         <v>15</v>
@@ -8882,13 +8750,13 @@
         <v>5</v>
       </c>
       <c r="C211" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D211">
         <v>59</v>
       </c>
       <c r="G211" s="3" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="K211" t="s">
         <v>15</v>
@@ -8902,13 +8770,13 @@
         <v>5</v>
       </c>
       <c r="C212" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D212">
         <v>59</v>
       </c>
       <c r="G212" s="3" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="K212" t="s">
         <v>15</v>
@@ -8922,13 +8790,13 @@
         <v>5</v>
       </c>
       <c r="C213" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D213">
         <v>59</v>
       </c>
       <c r="G213" s="3" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="K213" t="s">
         <v>15</v>
@@ -8942,13 +8810,13 @@
         <v>5</v>
       </c>
       <c r="C214" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D214">
         <v>60</v>
       </c>
       <c r="G214" s="3" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K214" t="s">
         <v>15</v>
@@ -8962,13 +8830,13 @@
         <v>5</v>
       </c>
       <c r="C215" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D215">
         <v>60</v>
       </c>
       <c r="G215" s="3" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="K215" t="s">
         <v>15</v>
@@ -8982,13 +8850,13 @@
         <v>5</v>
       </c>
       <c r="C216" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D216">
         <v>60</v>
       </c>
       <c r="G216" s="3" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="K216" t="s">
         <v>15</v>
@@ -9002,13 +8870,13 @@
         <v>5</v>
       </c>
       <c r="C217" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D217">
         <v>61</v>
       </c>
       <c r="G217" s="3" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="K217" t="s">
         <v>15</v>
@@ -9022,13 +8890,13 @@
         <v>5</v>
       </c>
       <c r="C218" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D218">
         <v>61</v>
       </c>
       <c r="G218" s="3" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="K218" t="s">
         <v>15</v>
@@ -9045,7 +8913,7 @@
         <v>94</v>
       </c>
       <c r="G219" s="3" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="K219" t="s">
         <v>15</v>
@@ -9059,13 +8927,13 @@
         <v>5</v>
       </c>
       <c r="C220" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D220">
         <v>61</v>
       </c>
       <c r="G220" s="3" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="K220" t="s">
         <v>15</v>
@@ -9079,13 +8947,13 @@
         <v>1</v>
       </c>
       <c r="C221" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D221">
         <v>10</v>
       </c>
       <c r="G221" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="K221" t="s">
         <v>15</v>
@@ -9099,13 +8967,13 @@
         <v>1</v>
       </c>
       <c r="C222" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="D222">
         <v>10</v>
       </c>
       <c r="G222" s="3" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="K222" t="s">
         <v>15</v>
@@ -9119,13 +8987,13 @@
         <v>1</v>
       </c>
       <c r="C223" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D223">
         <v>10</v>
       </c>
       <c r="G223" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="K223" t="s">
         <v>15</v>
@@ -9139,13 +9007,13 @@
         <v>1</v>
       </c>
       <c r="C224" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D224">
         <v>10</v>
       </c>
       <c r="G224" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="K224" t="s">
         <v>15</v>
@@ -9159,13 +9027,13 @@
         <v>1</v>
       </c>
       <c r="C225" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D225">
         <v>11</v>
       </c>
       <c r="G225" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="K225" t="s">
         <v>15</v>
@@ -9179,13 +9047,13 @@
         <v>1</v>
       </c>
       <c r="C226" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D226">
         <v>11</v>
       </c>
       <c r="G226" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K226" t="s">
         <v>15</v>
@@ -9199,13 +9067,13 @@
         <v>1</v>
       </c>
       <c r="C227" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D227">
         <v>11</v>
       </c>
       <c r="G227" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="K227" t="s">
         <v>15</v>
@@ -9219,13 +9087,13 @@
         <v>1</v>
       </c>
       <c r="C228" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D228">
         <v>11</v>
       </c>
       <c r="G228" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K228" t="s">
         <v>15</v>
@@ -9239,13 +9107,13 @@
         <v>1</v>
       </c>
       <c r="C229" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D229">
         <v>12</v>
       </c>
       <c r="G229" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="K229" t="s">
         <v>15</v>
@@ -9259,13 +9127,13 @@
         <v>1</v>
       </c>
       <c r="C230" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D230">
         <v>12</v>
       </c>
       <c r="G230" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="K230" t="s">
         <v>15</v>
@@ -9279,13 +9147,13 @@
         <v>1</v>
       </c>
       <c r="C231" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D231">
         <v>12</v>
       </c>
       <c r="G231" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="K231" t="s">
         <v>15</v>
@@ -9299,13 +9167,13 @@
         <v>1</v>
       </c>
       <c r="C232" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D232">
         <v>12</v>
       </c>
       <c r="G232" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="K232" t="s">
         <v>15</v>
@@ -9319,13 +9187,13 @@
         <v>1</v>
       </c>
       <c r="C233" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D233">
         <v>12</v>
       </c>
       <c r="G233" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="K233" t="s">
         <v>15</v>
@@ -9339,13 +9207,13 @@
         <v>1</v>
       </c>
       <c r="C234" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D234">
         <v>13</v>
       </c>
       <c r="G234" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="K234" t="s">
         <v>15</v>
@@ -9359,13 +9227,13 @@
         <v>1</v>
       </c>
       <c r="C235" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D235">
         <v>13</v>
       </c>
       <c r="G235" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="K235" t="s">
         <v>15</v>
@@ -9379,13 +9247,13 @@
         <v>1</v>
       </c>
       <c r="C236" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D236">
         <v>13</v>
       </c>
       <c r="G236" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="K236" t="s">
         <v>15</v>
@@ -9399,13 +9267,13 @@
         <v>1</v>
       </c>
       <c r="C237" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D237">
         <v>13</v>
       </c>
       <c r="G237" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="K237" t="s">
         <v>15</v>
@@ -9419,13 +9287,13 @@
         <v>1</v>
       </c>
       <c r="C238" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D238">
         <v>13</v>
       </c>
       <c r="G238" s="3" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="K238" t="s">
         <v>15</v>
@@ -9439,13 +9307,13 @@
         <v>2</v>
       </c>
       <c r="C239" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D239">
         <v>22</v>
       </c>
       <c r="G239" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="K239" t="s">
         <v>15</v>
@@ -9459,13 +9327,13 @@
         <v>2</v>
       </c>
       <c r="C240" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D240">
         <v>23</v>
       </c>
       <c r="G240" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="K240" t="s">
         <v>15</v>
@@ -9479,13 +9347,13 @@
         <v>2</v>
       </c>
       <c r="C241" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D241">
         <v>23</v>
       </c>
       <c r="G241" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K241" t="s">
         <v>15</v>
@@ -9499,13 +9367,13 @@
         <v>2</v>
       </c>
       <c r="C242" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D242">
         <v>23</v>
       </c>
       <c r="G242" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K242" t="s">
         <v>15</v>
@@ -9519,13 +9387,13 @@
         <v>2</v>
       </c>
       <c r="C243" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D243">
         <v>24</v>
       </c>
       <c r="G243" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="K243" t="s">
         <v>15</v>
@@ -9539,13 +9407,13 @@
         <v>2</v>
       </c>
       <c r="C244" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D244">
         <v>24</v>
       </c>
       <c r="G244" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="K244" t="s">
         <v>15</v>
@@ -9559,13 +9427,13 @@
         <v>2</v>
       </c>
       <c r="C245" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D245">
         <v>24</v>
       </c>
       <c r="G245" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="K245" t="s">
         <v>15</v>
@@ -9579,13 +9447,13 @@
         <v>2</v>
       </c>
       <c r="C246" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D246">
         <v>25</v>
       </c>
       <c r="G246" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="K246" t="s">
         <v>15</v>
@@ -9599,13 +9467,13 @@
         <v>2</v>
       </c>
       <c r="C247" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D247">
         <v>25</v>
       </c>
       <c r="G247" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="K247" t="s">
         <v>15</v>
@@ -9619,13 +9487,13 @@
         <v>3</v>
       </c>
       <c r="C248" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D248">
         <v>34</v>
       </c>
       <c r="G248" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="K248" t="s">
         <v>15</v>
@@ -9639,13 +9507,13 @@
         <v>3</v>
       </c>
       <c r="C249" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D249">
         <v>34</v>
       </c>
       <c r="G249" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="K249" t="s">
         <v>15</v>
@@ -9659,13 +9527,13 @@
         <v>3</v>
       </c>
       <c r="C250" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D250">
         <v>34</v>
       </c>
       <c r="G250" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="K250" t="s">
         <v>15</v>
@@ -9679,13 +9547,13 @@
         <v>3</v>
       </c>
       <c r="C251" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D251">
         <v>35</v>
       </c>
       <c r="G251" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="K251" t="s">
         <v>15</v>
@@ -9699,13 +9567,13 @@
         <v>3</v>
       </c>
       <c r="C252" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D252">
         <v>35</v>
       </c>
       <c r="G252" s="3" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="K252" t="s">
         <v>15</v>
@@ -9719,13 +9587,13 @@
         <v>3</v>
       </c>
       <c r="C253" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D253">
         <v>35</v>
       </c>
       <c r="G253" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="K253" t="s">
         <v>15</v>
@@ -9759,13 +9627,13 @@
         <v>3</v>
       </c>
       <c r="C255" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D255">
         <v>36</v>
       </c>
       <c r="G255" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="K255" t="s">
         <v>15</v>
@@ -9779,13 +9647,13 @@
         <v>3</v>
       </c>
       <c r="C256" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D256">
         <v>36</v>
       </c>
       <c r="G256" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="K256" t="s">
         <v>15</v>
@@ -9799,13 +9667,13 @@
         <v>3</v>
       </c>
       <c r="C257" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D257">
         <v>36</v>
       </c>
       <c r="G257" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="K257" t="s">
         <v>15</v>
@@ -9819,13 +9687,13 @@
         <v>3</v>
       </c>
       <c r="C258" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D258">
         <v>37</v>
       </c>
       <c r="G258" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="K258" t="s">
         <v>15</v>
@@ -9839,13 +9707,13 @@
         <v>3</v>
       </c>
       <c r="C259" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D259">
         <v>37</v>
       </c>
       <c r="G259" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="K259" t="s">
         <v>15</v>
@@ -9859,13 +9727,13 @@
         <v>4</v>
       </c>
       <c r="C260" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D260">
         <v>46</v>
       </c>
       <c r="G260" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="K260" t="s">
         <v>15</v>
@@ -9879,7 +9747,7 @@
         <v>4</v>
       </c>
       <c r="C261" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D261">
         <v>46</v>
@@ -9899,13 +9767,13 @@
         <v>4</v>
       </c>
       <c r="C262" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D262">
         <v>46</v>
       </c>
       <c r="G262" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="K262" t="s">
         <v>15</v>
@@ -9919,13 +9787,13 @@
         <v>4</v>
       </c>
       <c r="C263" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D263">
         <v>46</v>
       </c>
       <c r="G263" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="K263" t="s">
         <v>15</v>
@@ -9939,13 +9807,13 @@
         <v>4</v>
       </c>
       <c r="C264" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D264">
         <v>47</v>
       </c>
       <c r="G264" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="K264" t="s">
         <v>15</v>
@@ -9959,13 +9827,13 @@
         <v>4</v>
       </c>
       <c r="C265" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D265">
         <v>48</v>
       </c>
       <c r="G265" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="K265" t="s">
         <v>15</v>
@@ -9979,13 +9847,13 @@
         <v>4</v>
       </c>
       <c r="C266" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D266">
         <v>48</v>
       </c>
       <c r="G266" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="K266" t="s">
         <v>15</v>
@@ -9999,13 +9867,13 @@
         <v>4</v>
       </c>
       <c r="C267" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D267">
         <v>48</v>
       </c>
       <c r="G267" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="K267" t="s">
         <v>15</v>
@@ -10019,13 +9887,13 @@
         <v>4</v>
       </c>
       <c r="C268" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D268">
         <v>49</v>
       </c>
       <c r="G268" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="K268" t="s">
         <v>15</v>
@@ -10039,13 +9907,13 @@
         <v>4</v>
       </c>
       <c r="C269" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D269">
         <v>49</v>
       </c>
       <c r="G269" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="K269" t="s">
         <v>15</v>
@@ -10059,13 +9927,13 @@
         <v>5</v>
       </c>
       <c r="C270" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D270">
         <v>58</v>
       </c>
       <c r="G270" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="K270" t="s">
         <v>15</v>
@@ -10079,13 +9947,13 @@
         <v>5</v>
       </c>
       <c r="C271" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D271">
         <v>58</v>
       </c>
       <c r="G271" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="K271" t="s">
         <v>15</v>
@@ -10099,13 +9967,13 @@
         <v>5</v>
       </c>
       <c r="C272" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D272">
         <v>58</v>
       </c>
       <c r="G272" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="K272" t="s">
         <v>15</v>
@@ -10119,13 +9987,13 @@
         <v>5</v>
       </c>
       <c r="C273" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D273">
         <v>59</v>
       </c>
       <c r="G273" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="K273" t="s">
         <v>15</v>
@@ -10139,13 +10007,13 @@
         <v>5</v>
       </c>
       <c r="C274" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D274">
         <v>59</v>
       </c>
       <c r="G274" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="K274" t="s">
         <v>15</v>
@@ -10159,13 +10027,13 @@
         <v>5</v>
       </c>
       <c r="C275" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D275">
         <v>59</v>
       </c>
       <c r="G275" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="K275" t="s">
         <v>15</v>
@@ -10179,13 +10047,13 @@
         <v>5</v>
       </c>
       <c r="C276" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D276">
         <v>60</v>
       </c>
       <c r="G276" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="K276" t="s">
         <v>15</v>
@@ -10199,13 +10067,13 @@
         <v>5</v>
       </c>
       <c r="C277" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D277">
         <v>60</v>
       </c>
       <c r="G277" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="K277" t="s">
         <v>15</v>
@@ -10219,13 +10087,13 @@
         <v>5</v>
       </c>
       <c r="C278" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D278">
         <v>60</v>
       </c>
       <c r="G278" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K278" t="s">
         <v>15</v>
@@ -10239,13 +10107,13 @@
         <v>5</v>
       </c>
       <c r="C279" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="D279">
         <v>61</v>
       </c>
       <c r="G279" s="3" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="K279" t="s">
         <v>15</v>
@@ -10259,13 +10127,13 @@
         <v>5</v>
       </c>
       <c r="C280" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D280">
         <v>61</v>
       </c>
       <c r="G280" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="K280" t="s">
         <v>15</v>
@@ -10279,13 +10147,13 @@
         <v>1</v>
       </c>
       <c r="C281" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D281">
         <v>10</v>
       </c>
       <c r="G281" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="K281" t="s">
         <v>15</v>
@@ -10299,13 +10167,13 @@
         <v>1</v>
       </c>
       <c r="C282" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D282">
         <v>10</v>
       </c>
       <c r="G282" s="3" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="K282" t="s">
         <v>15</v>
@@ -10319,13 +10187,13 @@
         <v>1</v>
       </c>
       <c r="C283" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D283">
         <v>11</v>
       </c>
       <c r="G283" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="K283" t="s">
         <v>15</v>
@@ -10339,13 +10207,13 @@
         <v>1</v>
       </c>
       <c r="C284" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D284">
         <v>11</v>
       </c>
       <c r="G284" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="K284" t="s">
         <v>15</v>
@@ -10359,13 +10227,13 @@
         <v>1</v>
       </c>
       <c r="C285" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D285">
         <v>12</v>
       </c>
       <c r="G285" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="K285" t="s">
         <v>15</v>
@@ -10379,13 +10247,13 @@
         <v>1</v>
       </c>
       <c r="C286" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D286">
         <v>12</v>
       </c>
       <c r="G286" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K286" t="s">
         <v>15</v>
@@ -10399,13 +10267,13 @@
         <v>1</v>
       </c>
       <c r="C287" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D287">
         <v>12</v>
       </c>
       <c r="G287" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="K287" t="s">
         <v>15</v>
@@ -10419,13 +10287,13 @@
         <v>1</v>
       </c>
       <c r="C288" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D288">
         <v>12</v>
       </c>
       <c r="G288" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="K288" t="s">
         <v>15</v>
@@ -10439,13 +10307,13 @@
         <v>1</v>
       </c>
       <c r="C289" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D289">
         <v>13</v>
       </c>
       <c r="G289" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="K289" t="s">
         <v>15</v>
@@ -10459,13 +10327,13 @@
         <v>1</v>
       </c>
       <c r="C290" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D290">
         <v>13</v>
       </c>
       <c r="G290" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="K290" t="s">
         <v>15</v>
@@ -10479,13 +10347,13 @@
         <v>2</v>
       </c>
       <c r="C291" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D291">
         <v>22</v>
       </c>
       <c r="G291" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="K291" t="s">
         <v>15</v>
@@ -10499,13 +10367,13 @@
         <v>2</v>
       </c>
       <c r="C292" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D292">
         <v>22</v>
       </c>
       <c r="G292" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="K292" t="s">
         <v>15</v>
@@ -10519,13 +10387,13 @@
         <v>2</v>
       </c>
       <c r="C293" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D293">
         <v>23</v>
       </c>
       <c r="G293" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="K293" t="s">
         <v>15</v>
@@ -10539,13 +10407,13 @@
         <v>2</v>
       </c>
       <c r="C294" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D294">
         <v>23</v>
       </c>
       <c r="G294" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="K294" t="s">
         <v>15</v>
@@ -10559,13 +10427,13 @@
         <v>2</v>
       </c>
       <c r="C295" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D295">
         <v>23</v>
       </c>
       <c r="G295" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="K295" t="s">
         <v>15</v>
@@ -10579,13 +10447,13 @@
         <v>2</v>
       </c>
       <c r="C296" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D296">
         <v>23</v>
       </c>
       <c r="G296" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="K296" t="s">
         <v>15</v>
@@ -10599,13 +10467,13 @@
         <v>2</v>
       </c>
       <c r="C297" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D297">
         <v>24</v>
       </c>
       <c r="G297" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="K297" t="s">
         <v>15</v>
@@ -10619,13 +10487,13 @@
         <v>2</v>
       </c>
       <c r="C298" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D298">
         <v>24</v>
       </c>
       <c r="G298" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="K298" t="s">
         <v>15</v>
@@ -10639,13 +10507,13 @@
         <v>2</v>
       </c>
       <c r="C299" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D299">
         <v>24</v>
       </c>
       <c r="G299" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="K299" t="s">
         <v>15</v>
@@ -10659,13 +10527,13 @@
         <v>2</v>
       </c>
       <c r="C300" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D300">
         <v>25</v>
       </c>
       <c r="G300" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="K300" t="s">
         <v>15</v>
@@ -10679,13 +10547,13 @@
         <v>2</v>
       </c>
       <c r="C301" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="D301">
         <v>25</v>
       </c>
       <c r="G301" s="3" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="K301" t="s">
         <v>15</v>
@@ -10699,13 +10567,13 @@
         <v>2</v>
       </c>
       <c r="C302" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D302">
         <v>25</v>
       </c>
       <c r="G302" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="K302" t="s">
         <v>15</v>
@@ -10719,13 +10587,13 @@
         <v>3</v>
       </c>
       <c r="C303" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D303">
         <v>34</v>
       </c>
       <c r="G303" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="K303" t="s">
         <v>15</v>
@@ -10739,13 +10607,13 @@
         <v>3</v>
       </c>
       <c r="C304" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D304">
         <v>34</v>
       </c>
       <c r="G304" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="K304" t="s">
         <v>15</v>
@@ -10759,13 +10627,13 @@
         <v>3</v>
       </c>
       <c r="C305" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D305">
         <v>35</v>
       </c>
       <c r="G305" s="3" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="K305" t="s">
         <v>15</v>
@@ -10779,13 +10647,13 @@
         <v>3</v>
       </c>
       <c r="C306" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D306">
         <v>35</v>
       </c>
       <c r="G306" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="K306" t="s">
         <v>15</v>
@@ -10799,13 +10667,13 @@
         <v>3</v>
       </c>
       <c r="C307" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D307">
         <v>35</v>
       </c>
       <c r="G307" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="K307" t="s">
         <v>15</v>
@@ -10819,13 +10687,13 @@
         <v>3</v>
       </c>
       <c r="C308" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D308">
         <v>36</v>
       </c>
       <c r="G308" s="3" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="K308" t="s">
         <v>15</v>
@@ -10839,13 +10707,13 @@
         <v>3</v>
       </c>
       <c r="C309" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D309">
         <v>36</v>
       </c>
       <c r="G309" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="K309" t="s">
         <v>15</v>
@@ -10859,13 +10727,13 @@
         <v>3</v>
       </c>
       <c r="C310" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D310">
         <v>36</v>
       </c>
       <c r="G310" s="3" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="K310" t="s">
         <v>15</v>
@@ -10879,13 +10747,13 @@
         <v>3</v>
       </c>
       <c r="C311" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D311">
         <v>36</v>
       </c>
       <c r="G311" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="K311" t="s">
         <v>15</v>
@@ -10899,13 +10767,13 @@
         <v>3</v>
       </c>
       <c r="C312" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D312">
         <v>37</v>
       </c>
       <c r="G312" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="K312" t="s">
         <v>15</v>
@@ -10919,13 +10787,13 @@
         <v>3</v>
       </c>
       <c r="C313" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D313">
         <v>37</v>
       </c>
       <c r="G313" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="K313" t="s">
         <v>15</v>
@@ -10939,13 +10807,13 @@
         <v>3</v>
       </c>
       <c r="C314" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D314">
         <v>37</v>
       </c>
       <c r="G314" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="K314" t="s">
         <v>15</v>
@@ -10959,13 +10827,13 @@
         <v>3</v>
       </c>
       <c r="C315" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D315">
         <v>37</v>
       </c>
       <c r="G315" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="K315" t="s">
         <v>15</v>
@@ -10979,13 +10847,13 @@
         <v>3</v>
       </c>
       <c r="C316" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D316">
         <v>37</v>
       </c>
       <c r="G316" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="K316" t="s">
         <v>15</v>
@@ -10999,13 +10867,13 @@
         <v>4</v>
       </c>
       <c r="C317" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D317">
         <v>46</v>
       </c>
       <c r="G317" s="3" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="K317" t="s">
         <v>15</v>
@@ -11019,13 +10887,13 @@
         <v>4</v>
       </c>
       <c r="C318" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D318">
         <v>46</v>
       </c>
       <c r="G318" s="3" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="K318" t="s">
         <v>15</v>
@@ -11039,13 +10907,13 @@
         <v>4</v>
       </c>
       <c r="C319" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D319">
         <v>47</v>
       </c>
       <c r="G319" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K319" t="s">
         <v>15</v>
@@ -11059,13 +10927,13 @@
         <v>4</v>
       </c>
       <c r="C320" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D320">
         <v>47</v>
       </c>
       <c r="G320" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="K320" t="s">
         <v>15</v>
@@ -11079,13 +10947,13 @@
         <v>4</v>
       </c>
       <c r="C321" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D321">
         <v>47</v>
       </c>
       <c r="G321" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="K321" t="s">
         <v>15</v>
@@ -11099,13 +10967,13 @@
         <v>4</v>
       </c>
       <c r="C322" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D322">
         <v>48</v>
       </c>
       <c r="G322" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="K322" t="s">
         <v>15</v>
@@ -11119,13 +10987,13 @@
         <v>4</v>
       </c>
       <c r="C323" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D323">
         <v>48</v>
       </c>
       <c r="G323" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="K323" t="s">
         <v>15</v>
@@ -11139,13 +11007,13 @@
         <v>4</v>
       </c>
       <c r="C324" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D324">
         <v>49</v>
       </c>
       <c r="G324" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="K324" t="s">
         <v>15</v>
@@ -11159,13 +11027,13 @@
         <v>4</v>
       </c>
       <c r="C325" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D325">
         <v>49</v>
       </c>
       <c r="G325" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="K325" t="s">
         <v>15</v>
@@ -11179,13 +11047,13 @@
         <v>5</v>
       </c>
       <c r="C326" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D326">
         <v>58</v>
       </c>
       <c r="G326" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K326" t="s">
         <v>15</v>
@@ -11199,13 +11067,13 @@
         <v>5</v>
       </c>
       <c r="C327" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D327">
         <v>58</v>
       </c>
       <c r="G327" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="K327" t="s">
         <v>15</v>
@@ -11219,13 +11087,13 @@
         <v>5</v>
       </c>
       <c r="C328" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D328">
         <v>59</v>
       </c>
       <c r="G328" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="K328" t="s">
         <v>15</v>
@@ -11239,13 +11107,13 @@
         <v>5</v>
       </c>
       <c r="C329" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D329">
         <v>60</v>
       </c>
       <c r="G329" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="K329" t="s">
         <v>15</v>
@@ -11259,13 +11127,13 @@
         <v>5</v>
       </c>
       <c r="C330" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D330">
         <v>60</v>
       </c>
       <c r="G330" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="K330" t="s">
         <v>15</v>
@@ -11279,13 +11147,13 @@
         <v>5</v>
       </c>
       <c r="C331" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D331">
         <v>60</v>
       </c>
       <c r="G331" s="3" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="K331" t="s">
         <v>15</v>
@@ -11299,13 +11167,13 @@
         <v>5</v>
       </c>
       <c r="C332" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D332">
         <v>61</v>
       </c>
       <c r="G332" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="K332" t="s">
         <v>15</v>
@@ -11319,13 +11187,13 @@
         <v>5</v>
       </c>
       <c r="C333" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D333">
         <v>61</v>
       </c>
       <c r="G333" s="3" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="K333" t="s">
         <v>15</v>
@@ -11339,13 +11207,13 @@
         <v>5</v>
       </c>
       <c r="C334" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D334">
         <v>61</v>
       </c>
       <c r="G334" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="K334" t="s">
         <v>15</v>
@@ -11359,13 +11227,13 @@
         <v>1</v>
       </c>
       <c r="C335" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D335">
         <v>10</v>
       </c>
       <c r="G335" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="K335" t="s">
         <v>15</v>
@@ -11379,13 +11247,13 @@
         <v>1</v>
       </c>
       <c r="C336" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D336">
         <v>10</v>
       </c>
       <c r="G336" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="K336" t="s">
         <v>15</v>
@@ -11399,13 +11267,13 @@
         <v>1</v>
       </c>
       <c r="C337" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D337">
         <v>10</v>
       </c>
       <c r="G337" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="K337" t="s">
         <v>15</v>
@@ -11419,13 +11287,13 @@
         <v>1</v>
       </c>
       <c r="C338" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D338">
         <v>10</v>
       </c>
       <c r="G338" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="K338" t="s">
         <v>15</v>
@@ -11439,13 +11307,13 @@
         <v>1</v>
       </c>
       <c r="C339" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D339">
         <v>11</v>
       </c>
       <c r="G339" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="K339" t="s">
         <v>15</v>
@@ -11459,13 +11327,13 @@
         <v>1</v>
       </c>
       <c r="C340" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D340">
         <v>11</v>
       </c>
       <c r="G340" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="K340" t="s">
         <v>15</v>
@@ -11479,13 +11347,13 @@
         <v>1</v>
       </c>
       <c r="C341" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D341">
         <v>11</v>
       </c>
       <c r="G341" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="K341" t="s">
         <v>15</v>
@@ -11499,13 +11367,13 @@
         <v>1</v>
       </c>
       <c r="C342" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D342">
         <v>11</v>
       </c>
       <c r="G342" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="K342" t="s">
         <v>15</v>
@@ -11519,13 +11387,13 @@
         <v>1</v>
       </c>
       <c r="C343" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D343">
         <v>11</v>
       </c>
       <c r="G343" s="3" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="K343" t="s">
         <v>15</v>
@@ -11539,13 +11407,13 @@
         <v>1</v>
       </c>
       <c r="C344" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D344">
         <v>11</v>
       </c>
       <c r="G344" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="K344" t="s">
         <v>15</v>
@@ -11559,13 +11427,13 @@
         <v>1</v>
       </c>
       <c r="C345" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D345">
         <v>12</v>
       </c>
       <c r="G345" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="K345" t="s">
         <v>15</v>
@@ -11579,13 +11447,13 @@
         <v>1</v>
       </c>
       <c r="C346" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D346">
         <v>12</v>
       </c>
       <c r="G346" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="K346" t="s">
         <v>15</v>
@@ -11599,13 +11467,13 @@
         <v>1</v>
       </c>
       <c r="C347" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D347">
         <v>12</v>
       </c>
       <c r="G347" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="K347" t="s">
         <v>15</v>
@@ -11619,13 +11487,13 @@
         <v>1</v>
       </c>
       <c r="C348" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D348">
         <v>12</v>
       </c>
       <c r="G348" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="K348" t="s">
         <v>15</v>
@@ -11639,13 +11507,13 @@
         <v>1</v>
       </c>
       <c r="C349" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D349">
         <v>12</v>
       </c>
       <c r="G349" s="3" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="K349" t="s">
         <v>15</v>
@@ -11659,13 +11527,13 @@
         <v>1</v>
       </c>
       <c r="C350" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D350">
         <v>13</v>
       </c>
       <c r="G350" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="K350" t="s">
         <v>15</v>
@@ -11679,13 +11547,13 @@
         <v>1</v>
       </c>
       <c r="C351" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D351">
         <v>13</v>
       </c>
       <c r="G351" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="K351" t="s">
         <v>15</v>
@@ -11699,13 +11567,13 @@
         <v>2</v>
       </c>
       <c r="C352" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D352">
         <v>22</v>
       </c>
       <c r="G352" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="K352" t="s">
         <v>15</v>
@@ -11719,13 +11587,13 @@
         <v>2</v>
       </c>
       <c r="C353" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D353">
         <v>22</v>
       </c>
       <c r="G353" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="K353" t="s">
         <v>15</v>
@@ -11739,13 +11607,13 @@
         <v>2</v>
       </c>
       <c r="C354" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D354">
         <v>22</v>
       </c>
       <c r="G354" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="K354" t="s">
         <v>15</v>
@@ -11759,13 +11627,13 @@
         <v>2</v>
       </c>
       <c r="C355" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D355">
         <v>22</v>
       </c>
       <c r="G355" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="K355" t="s">
         <v>15</v>
@@ -11779,13 +11647,13 @@
         <v>2</v>
       </c>
       <c r="C356" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D356">
         <v>22</v>
       </c>
       <c r="G356" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="K356" t="s">
         <v>15</v>
@@ -11799,13 +11667,13 @@
         <v>2</v>
       </c>
       <c r="C357" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D357">
         <v>23</v>
       </c>
       <c r="G357" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="K357" t="s">
         <v>15</v>
@@ -11819,13 +11687,13 @@
         <v>2</v>
       </c>
       <c r="C358" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D358">
         <v>23</v>
       </c>
       <c r="G358" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="K358" t="s">
         <v>15</v>
@@ -11839,13 +11707,13 @@
         <v>2</v>
       </c>
       <c r="C359" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D359">
         <v>23</v>
       </c>
       <c r="G359" s="3" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="K359" t="s">
         <v>15</v>
@@ -11859,13 +11727,13 @@
         <v>2</v>
       </c>
       <c r="C360" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D360">
         <v>24</v>
       </c>
       <c r="G360" s="3" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="K360" t="s">
         <v>15</v>
@@ -11879,13 +11747,13 @@
         <v>2</v>
       </c>
       <c r="C361" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D361">
         <v>24</v>
       </c>
       <c r="G361" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="K361" t="s">
         <v>15</v>
@@ -11899,13 +11767,13 @@
         <v>2</v>
       </c>
       <c r="C362" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D362">
         <v>24</v>
       </c>
       <c r="G362" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="K362" t="s">
         <v>15</v>
@@ -11919,13 +11787,13 @@
         <v>2</v>
       </c>
       <c r="C363" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D363">
         <v>24</v>
       </c>
       <c r="G363" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="K363" t="s">
         <v>15</v>
@@ -11939,13 +11807,13 @@
         <v>2</v>
       </c>
       <c r="C364" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D364">
         <v>24</v>
       </c>
       <c r="G364" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="K364" t="s">
         <v>15</v>
@@ -11959,13 +11827,13 @@
         <v>2</v>
       </c>
       <c r="C365" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D365">
         <v>25</v>
       </c>
       <c r="G365" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="K365" t="s">
         <v>15</v>
@@ -11979,13 +11847,13 @@
         <v>2</v>
       </c>
       <c r="C366" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D366">
         <v>25</v>
       </c>
       <c r="G366" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="K366" t="s">
         <v>15</v>
@@ -11999,13 +11867,13 @@
         <v>3</v>
       </c>
       <c r="C367" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D367">
         <v>34</v>
       </c>
       <c r="G367" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="K367" t="s">
         <v>15</v>
@@ -12019,13 +11887,13 @@
         <v>3</v>
       </c>
       <c r="C368" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D368">
         <v>34</v>
       </c>
       <c r="G368" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="K368" t="s">
         <v>15</v>
@@ -12039,13 +11907,13 @@
         <v>3</v>
       </c>
       <c r="C369" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D369">
         <v>35</v>
       </c>
       <c r="G369" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="K369" t="s">
         <v>15</v>
@@ -12059,13 +11927,13 @@
         <v>3</v>
       </c>
       <c r="C370" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D370">
         <v>35</v>
       </c>
       <c r="G370" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="K370" t="s">
         <v>15</v>
@@ -12079,13 +11947,13 @@
         <v>3</v>
       </c>
       <c r="C371" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D371">
         <v>35</v>
       </c>
       <c r="G371" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="K371" t="s">
         <v>15</v>
@@ -12099,13 +11967,13 @@
         <v>3</v>
       </c>
       <c r="C372" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D372">
         <v>36</v>
       </c>
       <c r="G372" s="3" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="K372" t="s">
         <v>15</v>
@@ -12119,13 +11987,13 @@
         <v>3</v>
       </c>
       <c r="C373" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D373">
         <v>36</v>
       </c>
       <c r="G373" s="3" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="K373" t="s">
         <v>15</v>
@@ -12139,13 +12007,13 @@
         <v>3</v>
       </c>
       <c r="C374" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D374">
         <v>36</v>
       </c>
       <c r="G374" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="K374" t="s">
         <v>15</v>
@@ -12159,13 +12027,13 @@
         <v>3</v>
       </c>
       <c r="C375" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D375">
         <v>37</v>
       </c>
       <c r="G375" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="K375" t="s">
         <v>15</v>
@@ -12179,13 +12047,13 @@
         <v>3</v>
       </c>
       <c r="C376" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D376">
         <v>37</v>
       </c>
       <c r="G376" s="3" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="K376" t="s">
         <v>15</v>
@@ -12199,13 +12067,13 @@
         <v>4</v>
       </c>
       <c r="C377" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D377">
         <v>46</v>
       </c>
       <c r="G377" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="K377" t="s">
         <v>15</v>
@@ -12219,13 +12087,13 @@
         <v>4</v>
       </c>
       <c r="C378" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D378">
         <v>46</v>
       </c>
       <c r="G378" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="K378" t="s">
         <v>15</v>
@@ -12239,13 +12107,13 @@
         <v>4</v>
       </c>
       <c r="C379" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D379">
         <v>46</v>
       </c>
       <c r="G379" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="K379" t="s">
         <v>15</v>
@@ -12259,13 +12127,13 @@
         <v>4</v>
       </c>
       <c r="C380" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D380">
         <v>47</v>
       </c>
       <c r="G380" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="K380" t="s">
         <v>15</v>
@@ -12279,13 +12147,13 @@
         <v>4</v>
       </c>
       <c r="C381" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="D381">
         <v>47</v>
       </c>
       <c r="G381" s="3" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="K381" t="s">
         <v>15</v>
@@ -12299,13 +12167,13 @@
         <v>4</v>
       </c>
       <c r="C382" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D382">
         <v>47</v>
       </c>
       <c r="G382" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="K382" t="s">
         <v>15</v>
@@ -12319,13 +12187,13 @@
         <v>4</v>
       </c>
       <c r="C383" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="D383">
         <v>48</v>
       </c>
       <c r="G383" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="K383" t="s">
         <v>15</v>
@@ -12339,13 +12207,13 @@
         <v>4</v>
       </c>
       <c r="C384" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D384">
         <v>48</v>
       </c>
       <c r="G384" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="K384" t="s">
         <v>15</v>
@@ -12359,13 +12227,13 @@
         <v>4</v>
       </c>
       <c r="C385" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D385">
         <v>48</v>
       </c>
       <c r="G385" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="K385" t="s">
         <v>15</v>
@@ -12379,13 +12247,13 @@
         <v>4</v>
       </c>
       <c r="C386" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D386">
         <v>49</v>
       </c>
       <c r="G386" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="K386" t="s">
         <v>15</v>
@@ -12399,13 +12267,13 @@
         <v>4</v>
       </c>
       <c r="C387" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D387">
         <v>49</v>
       </c>
       <c r="G387" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="K387" t="s">
         <v>15</v>
@@ -12419,13 +12287,13 @@
         <v>5</v>
       </c>
       <c r="C388" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D388">
         <v>58</v>
       </c>
       <c r="G388" s="3" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="K388" t="s">
         <v>15</v>
@@ -12439,13 +12307,13 @@
         <v>5</v>
       </c>
       <c r="C389" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D389">
         <v>58</v>
       </c>
       <c r="G389" s="3" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="K389" t="s">
         <v>15</v>
@@ -12459,13 +12327,13 @@
         <v>5</v>
       </c>
       <c r="C390" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D390">
         <v>58</v>
       </c>
       <c r="G390" s="3" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="K390" t="s">
         <v>15</v>
@@ -12479,13 +12347,13 @@
         <v>5</v>
       </c>
       <c r="C391" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D391">
         <v>59</v>
       </c>
       <c r="G391" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="K391" t="s">
         <v>15</v>
@@ -12499,13 +12367,13 @@
         <v>5</v>
       </c>
       <c r="C392" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="D392">
         <v>59</v>
       </c>
       <c r="G392" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="K392" t="s">
         <v>15</v>
@@ -12519,13 +12387,13 @@
         <v>5</v>
       </c>
       <c r="C393" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D393">
         <v>60</v>
       </c>
       <c r="G393" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="K393" t="s">
         <v>15</v>
@@ -12539,13 +12407,13 @@
         <v>5</v>
       </c>
       <c r="C394" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D394">
         <v>60</v>
       </c>
       <c r="G394" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="K394" t="s">
         <v>15</v>
@@ -12559,13 +12427,13 @@
         <v>5</v>
       </c>
       <c r="C395" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D395">
         <v>60</v>
       </c>
       <c r="G395" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="K395" t="s">
         <v>15</v>
@@ -12579,13 +12447,13 @@
         <v>5</v>
       </c>
       <c r="C396" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D396">
         <v>61</v>
       </c>
       <c r="G396" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="K396" t="s">
         <v>15</v>
@@ -12599,13 +12467,13 @@
         <v>5</v>
       </c>
       <c r="C397" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D397">
         <v>61</v>
       </c>
       <c r="G397" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="K397" t="s">
         <v>15</v>
@@ -12619,13 +12487,13 @@
         <v>1</v>
       </c>
       <c r="C398" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D398">
         <v>10</v>
       </c>
       <c r="G398" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="K398" t="s">
         <v>15</v>
@@ -12639,13 +12507,13 @@
         <v>1</v>
       </c>
       <c r="C399" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D399">
         <v>10</v>
       </c>
       <c r="G399" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="K399" t="s">
         <v>15</v>
@@ -12659,13 +12527,13 @@
         <v>1</v>
       </c>
       <c r="C400" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D400">
         <v>10</v>
       </c>
       <c r="G400" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="K400" t="s">
         <v>15</v>
@@ -12679,13 +12547,13 @@
         <v>1</v>
       </c>
       <c r="C401" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D401">
         <v>10</v>
       </c>
       <c r="G401" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="K401" t="s">
         <v>15</v>
@@ -12699,13 +12567,13 @@
         <v>1</v>
       </c>
       <c r="C402" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D402">
         <v>11</v>
       </c>
       <c r="G402" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K402" t="s">
         <v>15</v>
@@ -12719,13 +12587,13 @@
         <v>1</v>
       </c>
       <c r="C403" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D403">
         <v>11</v>
       </c>
       <c r="G403" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="K403" t="s">
         <v>15</v>
@@ -12739,13 +12607,13 @@
         <v>1</v>
       </c>
       <c r="C404" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D404">
         <v>11</v>
       </c>
       <c r="G404" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="K404" t="s">
         <v>15</v>
@@ -12759,13 +12627,13 @@
         <v>1</v>
       </c>
       <c r="C405" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D405">
         <v>12</v>
       </c>
       <c r="G405" s="3" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="K405" t="s">
         <v>15</v>
@@ -12779,13 +12647,13 @@
         <v>1</v>
       </c>
       <c r="C406" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="D406">
         <v>12</v>
       </c>
       <c r="G406" s="3" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="K406" t="s">
         <v>15</v>
@@ -12799,13 +12667,13 @@
         <v>1</v>
       </c>
       <c r="C407" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="D407">
         <v>12</v>
       </c>
       <c r="G407" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="K407" t="s">
         <v>15</v>
@@ -12819,13 +12687,13 @@
         <v>1</v>
       </c>
       <c r="C408" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D408">
         <v>12</v>
       </c>
       <c r="G408" s="3" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="K408" t="s">
         <v>15</v>
@@ -12839,13 +12707,13 @@
         <v>1</v>
       </c>
       <c r="C409" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="D409">
         <v>13</v>
       </c>
       <c r="G409" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="K409" t="s">
         <v>15</v>
@@ -12859,13 +12727,13 @@
         <v>1</v>
       </c>
       <c r="C410" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D410">
         <v>13</v>
       </c>
       <c r="G410" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="K410" t="s">
         <v>15</v>
@@ -12879,13 +12747,13 @@
         <v>1</v>
       </c>
       <c r="C411" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="D411">
         <v>13</v>
       </c>
       <c r="G411" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="K411" t="s">
         <v>15</v>
@@ -12899,13 +12767,13 @@
         <v>2</v>
       </c>
       <c r="C412" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="D412">
         <v>22</v>
       </c>
       <c r="G412" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="K412" t="s">
         <v>15</v>
@@ -12919,13 +12787,13 @@
         <v>2</v>
       </c>
       <c r="C413" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D413">
         <v>22</v>
       </c>
       <c r="G413" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="K413" t="s">
         <v>15</v>
@@ -12939,13 +12807,13 @@
         <v>2</v>
       </c>
       <c r="C414" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D414">
         <v>22</v>
       </c>
       <c r="G414" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="K414" t="s">
         <v>15</v>
@@ -12959,13 +12827,13 @@
         <v>2</v>
       </c>
       <c r="C415" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="D415">
         <v>22</v>
       </c>
       <c r="G415" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="K415" t="s">
         <v>15</v>
@@ -12979,13 +12847,13 @@
         <v>2</v>
       </c>
       <c r="C416" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="D416">
         <v>23</v>
       </c>
       <c r="G416" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="K416" t="s">
         <v>15</v>
@@ -12999,13 +12867,13 @@
         <v>2</v>
       </c>
       <c r="C417" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D417">
         <v>23</v>
       </c>
       <c r="G417" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="K417" t="s">
         <v>15</v>
@@ -13019,13 +12887,13 @@
         <v>2</v>
       </c>
       <c r="C418" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="D418">
         <v>23</v>
       </c>
       <c r="G418" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="K418" t="s">
         <v>15</v>
@@ -13039,13 +12907,13 @@
         <v>2</v>
       </c>
       <c r="C419" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="D419">
         <v>23</v>
       </c>
       <c r="G419" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="K419" t="s">
         <v>15</v>
@@ -13059,13 +12927,13 @@
         <v>2</v>
       </c>
       <c r="C420" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="D420">
         <v>24</v>
       </c>
       <c r="G420" s="3" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="K420" t="s">
         <v>15</v>
@@ -13079,13 +12947,13 @@
         <v>2</v>
       </c>
       <c r="C421" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D421">
         <v>24</v>
       </c>
       <c r="G421" s="3" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="K421" t="s">
         <v>15</v>
@@ -13099,13 +12967,13 @@
         <v>2</v>
       </c>
       <c r="C422" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="D422">
         <v>24</v>
       </c>
       <c r="G422" s="3" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="K422" t="s">
         <v>15</v>
@@ -13119,13 +12987,13 @@
         <v>2</v>
       </c>
       <c r="C423" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D423">
         <v>24</v>
       </c>
       <c r="G423" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="K423" t="s">
         <v>15</v>
@@ -13139,13 +13007,13 @@
         <v>2</v>
       </c>
       <c r="C424" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D424">
         <v>25</v>
       </c>
       <c r="G424" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="K424" t="s">
         <v>15</v>
@@ -13159,13 +13027,13 @@
         <v>2</v>
       </c>
       <c r="C425" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D425">
         <v>25</v>
       </c>
       <c r="G425" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="K425" t="s">
         <v>15</v>
@@ -13179,13 +13047,13 @@
         <v>2</v>
       </c>
       <c r="C426" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="D426">
         <v>25</v>
       </c>
       <c r="G426" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="K426" t="s">
         <v>15</v>
@@ -13199,13 +13067,13 @@
         <v>2</v>
       </c>
       <c r="C427" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="D427">
         <v>25</v>
       </c>
       <c r="G427" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="K427" t="s">
         <v>15</v>
@@ -13219,13 +13087,13 @@
         <v>3</v>
       </c>
       <c r="C428" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D428">
         <v>34</v>
       </c>
       <c r="G428" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="K428" t="s">
         <v>15</v>
@@ -13239,13 +13107,13 @@
         <v>3</v>
       </c>
       <c r="C429" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D429">
         <v>34</v>
       </c>
       <c r="G429" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="K429" t="s">
         <v>15</v>
@@ -13259,13 +13127,13 @@
         <v>3</v>
       </c>
       <c r="C430" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D430">
         <v>34</v>
       </c>
       <c r="G430" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="K430" t="s">
         <v>15</v>
@@ -13279,13 +13147,13 @@
         <v>3</v>
       </c>
       <c r="C431" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D431">
         <v>35</v>
       </c>
       <c r="G431" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="K431" t="s">
         <v>15</v>
@@ -13299,13 +13167,13 @@
         <v>3</v>
       </c>
       <c r="C432" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D432">
         <v>35</v>
       </c>
       <c r="G432" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="K432" t="s">
         <v>15</v>
@@ -13319,13 +13187,13 @@
         <v>3</v>
       </c>
       <c r="C433" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="D433">
         <v>36</v>
       </c>
       <c r="G433" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="K433" t="s">
         <v>15</v>
@@ -13339,13 +13207,13 @@
         <v>3</v>
       </c>
       <c r="C434" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D434">
         <v>36</v>
       </c>
       <c r="G434" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="K434" t="s">
         <v>15</v>
@@ -13359,13 +13227,13 @@
         <v>3</v>
       </c>
       <c r="C435" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D435">
         <v>37</v>
       </c>
       <c r="G435" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="K435" t="s">
         <v>15</v>
@@ -13379,13 +13247,13 @@
         <v>3</v>
       </c>
       <c r="C436" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D436">
         <v>37</v>
       </c>
       <c r="G436" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="K436" t="s">
         <v>15</v>
@@ -13399,13 +13267,13 @@
         <v>3</v>
       </c>
       <c r="C437" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="D437">
         <v>37</v>
       </c>
       <c r="G437" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="K437" t="s">
         <v>15</v>
@@ -13419,13 +13287,13 @@
         <v>3</v>
       </c>
       <c r="C438" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="D438">
         <v>37</v>
       </c>
       <c r="G438" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="K438" t="s">
         <v>15</v>
@@ -13439,13 +13307,13 @@
         <v>4</v>
       </c>
       <c r="C439" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="D439">
         <v>46</v>
       </c>
       <c r="G439" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="K439" t="s">
         <v>15</v>
@@ -13459,13 +13327,13 @@
         <v>4</v>
       </c>
       <c r="C440" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="D440">
         <v>46</v>
       </c>
       <c r="G440" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="K440" t="s">
         <v>15</v>
@@ -13479,13 +13347,13 @@
         <v>4</v>
       </c>
       <c r="C441" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="D441">
         <v>46</v>
       </c>
       <c r="G441" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="K441" t="s">
         <v>15</v>
@@ -13499,13 +13367,13 @@
         <v>4</v>
       </c>
       <c r="C442" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D442">
         <v>47</v>
       </c>
       <c r="G442" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="K442" t="s">
         <v>15</v>
@@ -13519,13 +13387,13 @@
         <v>4</v>
       </c>
       <c r="C443" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D443">
         <v>47</v>
       </c>
       <c r="G443" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="K443" t="s">
         <v>15</v>
@@ -13539,13 +13407,13 @@
         <v>4</v>
       </c>
       <c r="C444" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="D444">
         <v>47</v>
       </c>
       <c r="G444" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="K444" t="s">
         <v>15</v>
@@ -13559,13 +13427,13 @@
         <v>4</v>
       </c>
       <c r="C445" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="D445">
         <v>48</v>
       </c>
       <c r="G445" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="K445" t="s">
         <v>15</v>
@@ -13579,13 +13447,13 @@
         <v>4</v>
       </c>
       <c r="C446" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="D446">
         <v>48</v>
       </c>
       <c r="G446" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="K446" t="s">
         <v>15</v>
@@ -13599,13 +13467,13 @@
         <v>4</v>
       </c>
       <c r="C447" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="D447">
         <v>48</v>
       </c>
       <c r="G447" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="K447" t="s">
         <v>15</v>
@@ -13619,13 +13487,13 @@
         <v>4</v>
       </c>
       <c r="C448" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="D448">
         <v>49</v>
       </c>
       <c r="G448" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="K448" t="s">
         <v>15</v>
@@ -13639,13 +13507,13 @@
         <v>4</v>
       </c>
       <c r="C449" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="D449">
         <v>49</v>
       </c>
       <c r="G449" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="K449" t="s">
         <v>15</v>
@@ -13659,13 +13527,13 @@
         <v>5</v>
       </c>
       <c r="C450" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D450">
         <v>58</v>
       </c>
       <c r="G450" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="K450" t="s">
         <v>15</v>
@@ -13679,13 +13547,13 @@
         <v>5</v>
       </c>
       <c r="C451" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D451">
         <v>58</v>
       </c>
       <c r="G451" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="K451" t="s">
         <v>15</v>
@@ -13699,13 +13567,13 @@
         <v>5</v>
       </c>
       <c r="C452" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D452">
         <v>58</v>
       </c>
       <c r="G452" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="K452" t="s">
         <v>15</v>
@@ -13719,13 +13587,13 @@
         <v>5</v>
       </c>
       <c r="C453" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="D453">
         <v>59</v>
       </c>
       <c r="G453" s="3" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="K453" t="s">
         <v>15</v>
@@ -13739,13 +13607,13 @@
         <v>5</v>
       </c>
       <c r="C454" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D454">
         <v>59</v>
       </c>
       <c r="G454" s="3" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="K454" t="s">
         <v>15</v>
@@ -13759,13 +13627,13 @@
         <v>5</v>
       </c>
       <c r="C455" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D455">
         <v>59</v>
       </c>
       <c r="G455" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="K455" t="s">
         <v>15</v>
@@ -13779,13 +13647,13 @@
         <v>5</v>
       </c>
       <c r="C456" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="D456">
         <v>60</v>
       </c>
       <c r="G456" s="3" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="K456" t="s">
         <v>15</v>
@@ -13799,13 +13667,13 @@
         <v>5</v>
       </c>
       <c r="C457" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="D457">
         <v>60</v>
       </c>
       <c r="G457" s="3" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="K457" t="s">
         <v>15</v>
@@ -13819,13 +13687,13 @@
         <v>5</v>
       </c>
       <c r="C458" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D458">
         <v>61</v>
       </c>
       <c r="G458" s="3" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="K458" t="s">
         <v>15</v>
@@ -13839,13 +13707,13 @@
         <v>5</v>
       </c>
       <c r="C459" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="D459">
         <v>61</v>
       </c>
       <c r="G459" s="3" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="K459" t="s">
         <v>15</v>
@@ -13859,13 +13727,13 @@
         <v>1</v>
       </c>
       <c r="C460" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="D460">
         <v>10</v>
       </c>
       <c r="G460" s="3" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="K460" t="s">
         <v>15</v>
@@ -13879,13 +13747,13 @@
         <v>1</v>
       </c>
       <c r="C461" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D461">
         <v>10</v>
       </c>
       <c r="G461" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="K461" t="s">
         <v>15</v>
@@ -13899,13 +13767,13 @@
         <v>1</v>
       </c>
       <c r="C462" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D462">
         <v>10</v>
       </c>
       <c r="G462" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="K462" t="s">
         <v>15</v>
@@ -13919,13 +13787,13 @@
         <v>1</v>
       </c>
       <c r="C463" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D463">
         <v>10</v>
       </c>
       <c r="G463" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="K463" t="s">
         <v>15</v>
@@ -13939,13 +13807,13 @@
         <v>1</v>
       </c>
       <c r="C464" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D464">
         <v>11</v>
       </c>
       <c r="G464" s="3" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="K464" t="s">
         <v>15</v>
@@ -13959,13 +13827,13 @@
         <v>1</v>
       </c>
       <c r="C465" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D465">
         <v>11</v>
       </c>
       <c r="G465" s="3" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="K465" t="s">
         <v>15</v>
@@ -13979,13 +13847,13 @@
         <v>1</v>
       </c>
       <c r="C466" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D466">
         <v>11</v>
       </c>
       <c r="G466" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="K466" t="s">
         <v>15</v>
@@ -13999,13 +13867,13 @@
         <v>1</v>
       </c>
       <c r="C467" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D467">
         <v>11</v>
       </c>
       <c r="G467" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="K467" t="s">
         <v>15</v>
@@ -14019,13 +13887,13 @@
         <v>1</v>
       </c>
       <c r="C468" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D468">
         <v>12</v>
       </c>
       <c r="G468" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="K468" t="s">
         <v>15</v>
@@ -14039,13 +13907,13 @@
         <v>1</v>
       </c>
       <c r="C469" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="D469">
         <v>12</v>
       </c>
       <c r="G469" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="K469" t="s">
         <v>15</v>
@@ -14059,13 +13927,13 @@
         <v>1</v>
       </c>
       <c r="C470" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="D470">
         <v>12</v>
       </c>
       <c r="G470" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="K470" t="s">
         <v>15</v>
@@ -14079,13 +13947,13 @@
         <v>1</v>
       </c>
       <c r="C471" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D471">
         <v>12</v>
       </c>
       <c r="G471" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K471" t="s">
         <v>15</v>
@@ -14099,13 +13967,13 @@
         <v>1</v>
       </c>
       <c r="C472" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="D472">
         <v>13</v>
       </c>
       <c r="G472" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="K472" t="s">
         <v>15</v>
@@ -14119,13 +13987,13 @@
         <v>1</v>
       </c>
       <c r="C473" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="D473">
         <v>13</v>
       </c>
       <c r="G473" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="K473" t="s">
         <v>15</v>
@@ -14139,13 +14007,13 @@
         <v>1</v>
       </c>
       <c r="C474" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D474">
         <v>13</v>
       </c>
       <c r="G474" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K474" t="s">
         <v>15</v>
@@ -14159,13 +14027,13 @@
         <v>1</v>
       </c>
       <c r="C475" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D475">
         <v>13</v>
       </c>
       <c r="G475" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="K475" t="s">
         <v>15</v>
@@ -14179,13 +14047,13 @@
         <v>1</v>
       </c>
       <c r="C476" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="D476">
         <v>13</v>
       </c>
       <c r="G476" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="K476" t="s">
         <v>15</v>
@@ -14199,13 +14067,13 @@
         <v>2</v>
       </c>
       <c r="C477" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="D477">
         <v>22</v>
       </c>
       <c r="G477" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="K477" t="s">
         <v>15</v>
@@ -14219,13 +14087,13 @@
         <v>2</v>
       </c>
       <c r="C478" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="D478">
         <v>22</v>
       </c>
       <c r="G478" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="K478" t="s">
         <v>15</v>
@@ -14239,13 +14107,13 @@
         <v>2</v>
       </c>
       <c r="C479" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="D479">
         <v>23</v>
       </c>
       <c r="G479" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="K479" t="s">
         <v>15</v>
@@ -14259,13 +14127,13 @@
         <v>2</v>
       </c>
       <c r="C480" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D480">
         <v>23</v>
       </c>
       <c r="G480" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="K480" t="s">
         <v>15</v>
@@ -14279,13 +14147,13 @@
         <v>2</v>
       </c>
       <c r="C481" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D481">
         <v>23</v>
       </c>
       <c r="G481" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="K481" t="s">
         <v>15</v>
@@ -14299,13 +14167,13 @@
         <v>2</v>
       </c>
       <c r="C482" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="D482">
         <v>24</v>
       </c>
       <c r="G482" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="K482" t="s">
         <v>15</v>
@@ -14319,13 +14187,13 @@
         <v>2</v>
       </c>
       <c r="C483" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D483">
         <v>24</v>
       </c>
       <c r="G483" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="K483" t="s">
         <v>15</v>
@@ -14339,13 +14207,13 @@
         <v>2</v>
       </c>
       <c r="C484" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="D484">
         <v>24</v>
       </c>
       <c r="G484" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="K484" t="s">
         <v>15</v>
@@ -14359,13 +14227,13 @@
         <v>2</v>
       </c>
       <c r="C485" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="D485">
         <v>25</v>
       </c>
       <c r="G485" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="K485" t="s">
         <v>15</v>
@@ -14379,13 +14247,13 @@
         <v>2</v>
       </c>
       <c r="C486" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="D486">
         <v>25</v>
       </c>
       <c r="G486" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="K486" t="s">
         <v>15</v>
@@ -14399,13 +14267,13 @@
         <v>3</v>
       </c>
       <c r="C487" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="D487">
         <v>34</v>
       </c>
       <c r="G487" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="K487" t="s">
         <v>15</v>
@@ -14419,13 +14287,13 @@
         <v>3</v>
       </c>
       <c r="C488" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="D488">
         <v>34</v>
       </c>
       <c r="G488" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="K488" t="s">
         <v>15</v>
@@ -14439,13 +14307,13 @@
         <v>3</v>
       </c>
       <c r="C489" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="D489">
         <v>35</v>
       </c>
       <c r="G489" s="3" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="K489" t="s">
         <v>15</v>
@@ -14459,13 +14327,13 @@
         <v>3</v>
       </c>
       <c r="C490" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="D490">
         <v>35</v>
       </c>
       <c r="G490" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="K490" t="s">
         <v>15</v>
@@ -14479,13 +14347,13 @@
         <v>3</v>
       </c>
       <c r="C491" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="D491">
         <v>35</v>
       </c>
       <c r="G491" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="K491" t="s">
         <v>15</v>
@@ -14499,13 +14367,13 @@
         <v>3</v>
       </c>
       <c r="C492" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D492">
         <v>36</v>
       </c>
       <c r="G492" s="3" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="K492" t="s">
         <v>15</v>
@@ -14519,13 +14387,13 @@
         <v>3</v>
       </c>
       <c r="C493" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="D493">
         <v>36</v>
       </c>
       <c r="G493" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="K493" t="s">
         <v>15</v>
@@ -14539,13 +14407,13 @@
         <v>3</v>
       </c>
       <c r="C494" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="D494">
         <v>36</v>
       </c>
       <c r="G494" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="K494" t="s">
         <v>15</v>
@@ -14559,13 +14427,13 @@
         <v>3</v>
       </c>
       <c r="C495" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="D495">
         <v>37</v>
       </c>
       <c r="G495" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="K495" t="s">
         <v>15</v>
@@ -14579,13 +14447,13 @@
         <v>3</v>
       </c>
       <c r="C496" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="D496">
         <v>37</v>
       </c>
       <c r="G496" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="K496" t="s">
         <v>15</v>
@@ -14599,13 +14467,13 @@
         <v>3</v>
       </c>
       <c r="C497" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="D497">
         <v>37</v>
       </c>
       <c r="G497" s="3" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="K497" t="s">
         <v>15</v>
@@ -14619,13 +14487,13 @@
         <v>4</v>
       </c>
       <c r="C498" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="D498">
         <v>46</v>
       </c>
       <c r="G498" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="K498" t="s">
         <v>15</v>
@@ -14639,13 +14507,13 @@
         <v>4</v>
       </c>
       <c r="C499" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="D499">
         <v>46</v>
       </c>
       <c r="G499" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="K499" t="s">
         <v>15</v>
@@ -14659,13 +14527,13 @@
         <v>4</v>
       </c>
       <c r="C500" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="D500">
         <v>46</v>
       </c>
       <c r="G500" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="K500" t="s">
         <v>15</v>
@@ -14679,13 +14547,13 @@
         <v>4</v>
       </c>
       <c r="C501" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="D501">
         <v>47</v>
       </c>
       <c r="G501" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="K501" t="s">
         <v>15</v>
@@ -14699,13 +14567,13 @@
         <v>4</v>
       </c>
       <c r="C502" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="D502">
         <v>47</v>
       </c>
       <c r="G502" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="K502" t="s">
         <v>15</v>
@@ -14719,13 +14587,13 @@
         <v>4</v>
       </c>
       <c r="C503" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="D503">
         <v>47</v>
       </c>
       <c r="G503" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="K503" t="s">
         <v>15</v>
@@ -14739,13 +14607,13 @@
         <v>4</v>
       </c>
       <c r="C504" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="D504">
         <v>48</v>
       </c>
       <c r="G504" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="K504" t="s">
         <v>15</v>
@@ -14759,13 +14627,13 @@
         <v>4</v>
       </c>
       <c r="C505" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="D505">
         <v>48</v>
       </c>
       <c r="G505" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="K505" t="s">
         <v>15</v>
@@ -14779,13 +14647,13 @@
         <v>4</v>
       </c>
       <c r="C506" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="D506">
         <v>48</v>
       </c>
       <c r="G506" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="K506" t="s">
         <v>15</v>
@@ -14799,13 +14667,13 @@
         <v>4</v>
       </c>
       <c r="C507" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="D507">
         <v>49</v>
       </c>
       <c r="G507" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="K507" t="s">
         <v>15</v>
@@ -14819,13 +14687,13 @@
         <v>4</v>
       </c>
       <c r="C508" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="D508">
         <v>49</v>
       </c>
       <c r="G508" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="K508" t="s">
         <v>15</v>
@@ -14839,13 +14707,13 @@
         <v>5</v>
       </c>
       <c r="C509" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="D509">
         <v>58</v>
       </c>
       <c r="G509" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="K509" t="s">
         <v>15</v>
@@ -14859,13 +14727,13 @@
         <v>5</v>
       </c>
       <c r="C510" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="D510">
         <v>58</v>
       </c>
       <c r="G510" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="K510" t="s">
         <v>15</v>
@@ -14879,13 +14747,13 @@
         <v>5</v>
       </c>
       <c r="C511" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="D511">
         <v>58</v>
       </c>
       <c r="G511" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="K511" t="s">
         <v>15</v>
@@ -14899,13 +14767,13 @@
         <v>5</v>
       </c>
       <c r="C512" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="D512">
         <v>58</v>
       </c>
       <c r="G512" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="K512" t="s">
         <v>15</v>
@@ -14919,13 +14787,13 @@
         <v>5</v>
       </c>
       <c r="C513" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="D513">
         <v>59</v>
       </c>
       <c r="G513" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="K513" t="s">
         <v>15</v>
@@ -14939,13 +14807,13 @@
         <v>5</v>
       </c>
       <c r="C514" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="D514">
         <v>59</v>
       </c>
       <c r="G514" s="3" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="K514" t="s">
         <v>15</v>
@@ -14959,13 +14827,13 @@
         <v>5</v>
       </c>
       <c r="C515" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="D515">
         <v>59</v>
       </c>
       <c r="G515" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="K515" t="s">
         <v>15</v>
@@ -14979,13 +14847,13 @@
         <v>5</v>
       </c>
       <c r="C516" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="D516">
         <v>59</v>
       </c>
       <c r="G516" s="3" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="K516" t="s">
         <v>15</v>
@@ -14999,13 +14867,13 @@
         <v>5</v>
       </c>
       <c r="C517" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="D517">
         <v>60</v>
       </c>
       <c r="G517" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="K517" t="s">
         <v>15</v>
@@ -15019,13 +14887,13 @@
         <v>5</v>
       </c>
       <c r="C518" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D518">
         <v>60</v>
       </c>
       <c r="G518" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="K518" t="s">
         <v>15</v>
@@ -15039,13 +14907,13 @@
         <v>5</v>
       </c>
       <c r="C519" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D519">
         <v>60</v>
       </c>
       <c r="G519" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="K519" t="s">
         <v>15</v>
@@ -15059,13 +14927,13 @@
         <v>5</v>
       </c>
       <c r="C520" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D520">
         <v>61</v>
       </c>
       <c r="G520" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="K520" t="s">
         <v>15</v>
@@ -15079,13 +14947,13 @@
         <v>5</v>
       </c>
       <c r="C521" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D521">
         <v>61</v>
       </c>
       <c r="G521" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="K521" t="s">
         <v>15</v>
@@ -15099,13 +14967,13 @@
         <v>5</v>
       </c>
       <c r="C522" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="D522">
         <v>61</v>
       </c>
       <c r="G522" s="3" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="K522" t="s">
         <v>15</v>
@@ -15119,13 +14987,13 @@
         <v>1</v>
       </c>
       <c r="C523" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="D523">
         <v>10</v>
       </c>
       <c r="G523" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="K523" t="s">
         <v>15</v>
@@ -15139,13 +15007,13 @@
         <v>1</v>
       </c>
       <c r="C524" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="D524">
         <v>10</v>
       </c>
       <c r="G524" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="K524" t="s">
         <v>15</v>
@@ -15159,13 +15027,13 @@
         <v>1</v>
       </c>
       <c r="C525" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="D525">
         <v>10</v>
       </c>
       <c r="G525" s="3" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="K525" t="s">
         <v>15</v>
@@ -15179,13 +15047,13 @@
         <v>1</v>
       </c>
       <c r="C526" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="D526">
         <v>10</v>
       </c>
       <c r="G526" s="3" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="K526" t="s">
         <v>15</v>
@@ -15199,13 +15067,13 @@
         <v>1</v>
       </c>
       <c r="C527" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="D527">
         <v>11</v>
       </c>
       <c r="G527" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="K527" t="s">
         <v>15</v>
@@ -15219,13 +15087,13 @@
         <v>1</v>
       </c>
       <c r="C528" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="D528">
         <v>11</v>
       </c>
       <c r="G528" s="3" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="K528" t="s">
         <v>15</v>
@@ -15239,13 +15107,13 @@
         <v>1</v>
       </c>
       <c r="C529" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="D529">
         <v>11</v>
       </c>
       <c r="G529" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="K529" t="s">
         <v>15</v>
@@ -15259,13 +15127,13 @@
         <v>1</v>
       </c>
       <c r="C530" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="D530">
         <v>12</v>
       </c>
       <c r="G530" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="K530" t="s">
         <v>15</v>
@@ -15279,13 +15147,13 @@
         <v>1</v>
       </c>
       <c r="C531" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="D531">
         <v>12</v>
       </c>
       <c r="G531" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="K531" t="s">
         <v>15</v>
@@ -15299,13 +15167,13 @@
         <v>1</v>
       </c>
       <c r="C532" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="D532">
         <v>12</v>
       </c>
       <c r="G532" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="K532" t="s">
         <v>15</v>
@@ -15319,13 +15187,13 @@
         <v>1</v>
       </c>
       <c r="C533" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D533">
         <v>12</v>
       </c>
       <c r="G533" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="K533" t="s">
         <v>15</v>
@@ -15339,13 +15207,13 @@
         <v>1</v>
       </c>
       <c r="C534" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="D534">
         <v>13</v>
       </c>
       <c r="G534" s="3" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="K534" t="s">
         <v>15</v>
@@ -15359,13 +15227,13 @@
         <v>1</v>
       </c>
       <c r="C535" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="D535">
         <v>13</v>
       </c>
       <c r="G535" s="3" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="K535" t="s">
         <v>15</v>
@@ -15379,13 +15247,13 @@
         <v>1</v>
       </c>
       <c r="C536" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="D536">
         <v>13</v>
       </c>
       <c r="G536" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="K536" t="s">
         <v>15</v>
@@ -15399,13 +15267,13 @@
         <v>2</v>
       </c>
       <c r="C537" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="D537">
         <v>22</v>
       </c>
       <c r="G537" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="K537" t="s">
         <v>15</v>
@@ -15419,13 +15287,13 @@
         <v>2</v>
       </c>
       <c r="C538" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="D538">
         <v>22</v>
       </c>
       <c r="G538" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="K538" t="s">
         <v>15</v>
@@ -15439,13 +15307,13 @@
         <v>2</v>
       </c>
       <c r="C539" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D539">
         <v>22</v>
       </c>
       <c r="G539" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="K539" t="s">
         <v>15</v>
@@ -15459,13 +15327,13 @@
         <v>2</v>
       </c>
       <c r="C540" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="D540">
         <v>22</v>
       </c>
       <c r="G540" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="K540" t="s">
         <v>15</v>
@@ -15479,13 +15347,13 @@
         <v>2</v>
       </c>
       <c r="C541" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="D541">
         <v>23</v>
       </c>
       <c r="G541" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="K541" t="s">
         <v>15</v>
@@ -15499,13 +15367,13 @@
         <v>2</v>
       </c>
       <c r="C542" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="D542">
         <v>23</v>
       </c>
       <c r="G542" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="K542" t="s">
         <v>15</v>
@@ -15519,13 +15387,13 @@
         <v>2</v>
       </c>
       <c r="C543" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="D543">
         <v>23</v>
       </c>
       <c r="G543" s="3" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="K543" t="s">
         <v>15</v>
@@ -15539,13 +15407,13 @@
         <v>2</v>
       </c>
       <c r="C544" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="D544">
         <v>24</v>
       </c>
       <c r="G544" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="K544" t="s">
         <v>15</v>
@@ -15559,13 +15427,13 @@
         <v>2</v>
       </c>
       <c r="C545" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="D545">
         <v>24</v>
       </c>
       <c r="G545" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="K545" t="s">
         <v>15</v>
@@ -15579,13 +15447,13 @@
         <v>2</v>
       </c>
       <c r="C546" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="D546">
         <v>24</v>
       </c>
       <c r="G546" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="K546" t="s">
         <v>15</v>
@@ -15599,13 +15467,13 @@
         <v>2</v>
       </c>
       <c r="C547" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="D547">
         <v>25</v>
       </c>
       <c r="G547" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="K547" t="s">
         <v>15</v>
@@ -15619,13 +15487,13 @@
         <v>2</v>
       </c>
       <c r="C548" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="D548">
         <v>25</v>
       </c>
       <c r="G548" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="K548" t="s">
         <v>15</v>
@@ -15639,13 +15507,13 @@
         <v>2</v>
       </c>
       <c r="C549" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="D549">
         <v>25</v>
       </c>
       <c r="G549" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="K549" t="s">
         <v>15</v>
@@ -15659,13 +15527,13 @@
         <v>3</v>
       </c>
       <c r="C550" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="D550">
         <v>35</v>
       </c>
       <c r="G550" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="K550" t="s">
         <v>15</v>
@@ -15679,13 +15547,13 @@
         <v>3</v>
       </c>
       <c r="C551" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="D551">
         <v>35</v>
       </c>
       <c r="G551" s="3" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="K551" t="s">
         <v>15</v>
@@ -15699,13 +15567,13 @@
         <v>3</v>
       </c>
       <c r="C552" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D552">
         <v>35</v>
       </c>
       <c r="G552" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="K552" t="s">
         <v>15</v>
@@ -15719,13 +15587,13 @@
         <v>3</v>
       </c>
       <c r="C553" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="D553">
         <v>36</v>
       </c>
       <c r="G553" s="3" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="K553" t="s">
         <v>15</v>
@@ -15739,13 +15607,13 @@
         <v>3</v>
       </c>
       <c r="C554" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="D554">
         <v>36</v>
       </c>
       <c r="G554" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="K554" t="s">
         <v>15</v>
@@ -15759,13 +15627,13 @@
         <v>3</v>
       </c>
       <c r="C555" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="D555">
         <v>36</v>
       </c>
       <c r="G555" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="K555" t="s">
         <v>15</v>
@@ -15779,13 +15647,13 @@
         <v>3</v>
       </c>
       <c r="C556" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="D556">
         <v>36</v>
       </c>
       <c r="G556" s="3" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="K556" t="s">
         <v>15</v>
@@ -15799,13 +15667,13 @@
         <v>3</v>
       </c>
       <c r="C557" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="D557">
         <v>36</v>
       </c>
       <c r="G557" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="K557" t="s">
         <v>15</v>
@@ -15819,13 +15687,13 @@
         <v>3</v>
       </c>
       <c r="C558" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="D558">
         <v>36</v>
       </c>
       <c r="G558" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="K558" t="s">
         <v>15</v>
@@ -15839,13 +15707,13 @@
         <v>3</v>
       </c>
       <c r="C559" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="D559">
         <v>37</v>
       </c>
       <c r="G559" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="K559" t="s">
         <v>15</v>
@@ -15859,13 +15727,13 @@
         <v>3</v>
       </c>
       <c r="C560" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="D560">
         <v>37</v>
       </c>
       <c r="G560" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="K560" t="s">
         <v>15</v>
@@ -15879,13 +15747,13 @@
         <v>3</v>
       </c>
       <c r="C561" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="D561">
         <v>37</v>
       </c>
       <c r="G561" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="K561" t="s">
         <v>15</v>
@@ -15899,13 +15767,13 @@
         <v>4</v>
       </c>
       <c r="C562" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="D562">
         <v>46</v>
       </c>
       <c r="G562" s="3" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="K562" t="s">
         <v>15</v>
@@ -15919,13 +15787,13 @@
         <v>4</v>
       </c>
       <c r="C563" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="D563">
         <v>46</v>
       </c>
       <c r="G563" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="K563" t="s">
         <v>15</v>
@@ -15939,13 +15807,13 @@
         <v>4</v>
       </c>
       <c r="C564" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="D564">
         <v>46</v>
       </c>
       <c r="G564" s="3" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="K564" t="s">
         <v>15</v>
@@ -15959,13 +15827,13 @@
         <v>4</v>
       </c>
       <c r="C565" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="D565">
         <v>46</v>
       </c>
       <c r="G565" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="K565" t="s">
         <v>15</v>
@@ -15979,13 +15847,13 @@
         <v>4</v>
       </c>
       <c r="C566" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="D566">
         <v>47</v>
       </c>
       <c r="G566" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="K566" t="s">
         <v>15</v>
@@ -15999,13 +15867,13 @@
         <v>4</v>
       </c>
       <c r="C567" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="D567">
         <v>47</v>
       </c>
       <c r="G567" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="K567" t="s">
         <v>15</v>
@@ -16019,13 +15887,13 @@
         <v>4</v>
       </c>
       <c r="C568" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="D568">
         <v>47</v>
       </c>
       <c r="G568" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="K568" t="s">
         <v>15</v>
@@ -16039,13 +15907,13 @@
         <v>4</v>
       </c>
       <c r="C569" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="D569">
         <v>47</v>
       </c>
       <c r="G569" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="K569" t="s">
         <v>15</v>
@@ -16059,13 +15927,13 @@
         <v>4</v>
       </c>
       <c r="C570" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="D570">
         <v>48</v>
       </c>
       <c r="G570" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="K570" t="s">
         <v>15</v>
@@ -16079,13 +15947,13 @@
         <v>4</v>
       </c>
       <c r="C571" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="D571">
         <v>48</v>
       </c>
       <c r="G571" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="K571" t="s">
         <v>15</v>
@@ -16099,13 +15967,13 @@
         <v>4</v>
       </c>
       <c r="C572" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D572">
         <v>48</v>
       </c>
       <c r="G572" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="K572" t="s">
         <v>15</v>
@@ -16119,13 +15987,13 @@
         <v>4</v>
       </c>
       <c r="C573" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D573">
         <v>49</v>
       </c>
       <c r="G573" s="3" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="K573" t="s">
         <v>15</v>
@@ -16139,13 +16007,13 @@
         <v>4</v>
       </c>
       <c r="C574" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="D574">
         <v>49</v>
       </c>
       <c r="G574" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="K574" t="s">
         <v>15</v>
@@ -16159,13 +16027,13 @@
         <v>4</v>
       </c>
       <c r="C575" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="D575">
         <v>49</v>
       </c>
       <c r="G575" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="K575" t="s">
         <v>15</v>
@@ -16179,13 +16047,13 @@
         <v>5</v>
       </c>
       <c r="C576" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="D576">
         <v>58</v>
       </c>
       <c r="G576" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="K576" t="s">
         <v>15</v>
@@ -16199,13 +16067,13 @@
         <v>5</v>
       </c>
       <c r="C577" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="D577">
         <v>58</v>
       </c>
       <c r="G577" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="K577" t="s">
         <v>15</v>
@@ -16219,13 +16087,13 @@
         <v>5</v>
       </c>
       <c r="C578" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="D578">
         <v>58</v>
       </c>
       <c r="G578" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="K578" t="s">
         <v>15</v>
@@ -16239,13 +16107,13 @@
         <v>5</v>
       </c>
       <c r="C579" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="D579">
         <v>58</v>
       </c>
       <c r="G579" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="K579" t="s">
         <v>15</v>
@@ -16259,13 +16127,13 @@
         <v>5</v>
       </c>
       <c r="C580" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D580">
         <v>58</v>
       </c>
       <c r="G580" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="K580" t="s">
         <v>15</v>
@@ -16279,13 +16147,13 @@
         <v>5</v>
       </c>
       <c r="C581" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="D581">
         <v>59</v>
       </c>
       <c r="G581" s="3" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="K581" t="s">
         <v>15</v>
@@ -16299,13 +16167,13 @@
         <v>5</v>
       </c>
       <c r="C582" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="D582">
         <v>59</v>
       </c>
       <c r="G582" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="K582" t="s">
         <v>15</v>
@@ -16319,13 +16187,13 @@
         <v>5</v>
       </c>
       <c r="C583" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="D583">
         <v>59</v>
       </c>
       <c r="G583" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="K583" t="s">
         <v>15</v>
@@ -16339,13 +16207,13 @@
         <v>5</v>
       </c>
       <c r="C584" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="D584">
         <v>59</v>
       </c>
       <c r="G584" s="3" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="K584" t="s">
         <v>15</v>
@@ -16359,13 +16227,13 @@
         <v>5</v>
       </c>
       <c r="C585" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="D585">
         <v>60</v>
       </c>
       <c r="G585" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="K585" t="s">
         <v>15</v>
@@ -16379,13 +16247,13 @@
         <v>5</v>
       </c>
       <c r="C586" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="D586">
         <v>60</v>
       </c>
       <c r="G586" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="K586" t="s">
         <v>15</v>
@@ -16399,13 +16267,13 @@
         <v>5</v>
       </c>
       <c r="C587" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="D587">
         <v>60</v>
       </c>
       <c r="G587" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="K587" t="s">
         <v>15</v>
@@ -16419,13 +16287,13 @@
         <v>5</v>
       </c>
       <c r="C588" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="D588">
         <v>60</v>
       </c>
       <c r="G588" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="K588" t="s">
         <v>15</v>
@@ -16439,13 +16307,13 @@
         <v>5</v>
       </c>
       <c r="C589" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="D589">
         <v>60</v>
       </c>
       <c r="G589" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="K589" t="s">
         <v>15</v>
@@ -16459,13 +16327,13 @@
         <v>5</v>
       </c>
       <c r="C590" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="D590">
         <v>61</v>
       </c>
       <c r="G590" s="3" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="K590" t="s">
         <v>15</v>
@@ -16479,13 +16347,13 @@
         <v>5</v>
       </c>
       <c r="C591" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="D591">
         <v>61</v>
       </c>
       <c r="G591" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="K591" t="s">
         <v>15</v>
@@ -16499,13 +16367,13 @@
         <v>5</v>
       </c>
       <c r="C592" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="D592">
         <v>61</v>
       </c>
       <c r="G592" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="K592" t="s">
         <v>15</v>
@@ -16519,13 +16387,13 @@
         <v>5</v>
       </c>
       <c r="C593" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="D593">
         <v>61</v>
       </c>
       <c r="G593" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="K593" t="s">
         <v>15</v>
